--- a/员工管理系统-测试用例.xlsx
+++ b/员工管理系统-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="登录功能接口测试" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="员工管理接口测试" sheetId="2" r:id="rId3"/>
     <sheet name="登录功能功能测试 " sheetId="6" r:id="rId4"/>
     <sheet name="部门管理功能测试" sheetId="3" r:id="rId5"/>
+    <sheet name="员工管理功能测试" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="841">
   <si>
     <t>用例编号</t>
   </si>
@@ -2434,6 +2435,719 @@
   <si>
     <t>1.弹出“提示”弹框，内容为“您确定要删除该部门吗?”
 2.取消成功</t>
+  </si>
+  <si>
+    <t>UI_emp_001</t>
+  </si>
+  <si>
+    <t>员工查询</t>
+  </si>
+  <si>
+    <t>登录成功，并进入员工管理页面</t>
+  </si>
+  <si>
+    <t>编辑姓名、性别及入职日期范围，查询成功</t>
+  </si>
+  <si>
+    <t>{name:"小",begin:"2007-09-01"&amp;,end:"2024-09-01"}</t>
+  </si>
+  <si>
+    <t>1.点击【重置】按钮
+2.编辑姓名、性别及入职日期范围
+3.点击【查询】按钮</t>
+  </si>
+  <si>
+    <t>1.清空姓名、性别及入职日期输入框内的信息
+2.编辑成功
+3.查询成功</t>
+  </si>
+  <si>
+    <t>UI_emp_002</t>
+  </si>
+  <si>
+    <t>编辑姓名，查询成功</t>
+  </si>
+  <si>
+    <t>{name:"张"}</t>
+  </si>
+  <si>
+    <t>UI_emp_003</t>
+  </si>
+  <si>
+    <t>编辑性别，查询成功</t>
+  </si>
+  <si>
+    <t>{gender:"男"}</t>
+  </si>
+  <si>
+    <t>UI_emp_004</t>
+  </si>
+  <si>
+    <t>编辑入职日期范围，查询成功</t>
+  </si>
+  <si>
+    <t>{begin:"2007-09-01",end:"2024-09-01"}</t>
+  </si>
+  <si>
+    <t>UI_emp_005</t>
+  </si>
+  <si>
+    <t>编辑姓名及性别，查询成功</t>
+  </si>
+  <si>
+    <t>{name:"张",gender:"男"}</t>
+  </si>
+  <si>
+    <t>UI_emp_006</t>
+  </si>
+  <si>
+    <t>编辑姓名及入职日期范围，查询成功</t>
+  </si>
+  <si>
+    <t>{name:"小",begin:"2007-09-01",end:"2024-09-01"}</t>
+  </si>
+  <si>
+    <t>UI_emp_007</t>
+  </si>
+  <si>
+    <t>编辑性别及入职日期范围，查询成功</t>
+  </si>
+  <si>
+    <t>{gender:"女",begin:"2007-09-01",end:"2024-09-01"}</t>
+  </si>
+  <si>
+    <t>UI_emp_008</t>
+  </si>
+  <si>
+    <t>新增员工，上传图片，上传成功</t>
+  </si>
+  <si>
+    <t>C:\Users\chizuru\Desktop\test.jpg</t>
+  </si>
+  <si>
+    <t>1.点击【新增员工】按钮
+2.上传文件</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.上传成功</t>
+  </si>
+  <si>
+    <t>UI_emp_009</t>
+  </si>
+  <si>
+    <t>编辑员工，上传图片，上传成功</t>
+  </si>
+  <si>
+    <t>UI_emp_010</t>
+  </si>
+  <si>
+    <t>新增员工，上传不是图片的文件，上传成功</t>
+  </si>
+  <si>
+    <t>C:\Users\chizuru\Desktop\test.txt</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.上传失败</t>
+  </si>
+  <si>
+    <t>UI_emp_011</t>
+  </si>
+  <si>
+    <t>编辑员工，上传不是图片的文件，上传成功</t>
+  </si>
+  <si>
+    <t>UI_emp_012</t>
+  </si>
+  <si>
+    <t>新增员工，上传大于2M的图片，上传成功</t>
+  </si>
+  <si>
+    <t>C:\Users\chizuru\Desktop\test1.jpg</t>
+  </si>
+  <si>
+    <t>UI_emp_013</t>
+  </si>
+  <si>
+    <t>编辑员工，上传大于2M的图片，上传成功</t>
+  </si>
+  <si>
+    <t>新增员工</t>
+  </si>
+  <si>
+    <t>输入合法的用户名，用户姓名，性别，图 像，职位，入职日期，归属部门，添加成功</t>
+  </si>
+  <si>
+    <t>{"image":"https://web-framework.oss-cn-hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg","username":"l","name":"林","gender":"男","job":1,"entrydate":"2024-09-18","dept_id":"咨询部"}</t>
+  </si>
+  <si>
+    <t>1.点击【新增员工】按钮
+2.输入员工名称
+3.点击【保存】按钮</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存成功，并在第一页第一行找到该信息</t>
+  </si>
+  <si>
+    <t>输入合法的用户名，用户姓名，性别，添加成功</t>
+  </si>
+  <si>
+    <t>{"username":"liangliang","name":"林平林萍林","gender":"女"}</t>
+  </si>
+  <si>
+    <t>1.点击【新增员工】按钮
+2.编辑员工信息
+3.点击【保存】按钮</t>
+  </si>
+  <si>
+    <t>不输入用户名，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "林平", 
+"username": "", 
+"gender":"女", 
+"job":"咨询师", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户名是必填项”</t>
+  </si>
+  <si>
+    <t>用户名的长度为1，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "林平", 
+"username": "aaaaabbbbbcccccddddde", 
+"gender":"女", 
+"job":"班主任", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户名长度必须在2到20个字符之间”</t>
+  </si>
+  <si>
+    <t>用户名的长度为21，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>用户名已存在，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "林平", 
+"username": "jinyong", 
+"gender":"男", 
+"job":"学工主管", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“当前用户名已存在，请重新输入”</t>
+  </si>
+  <si>
+    <t>UI_emp_014</t>
+  </si>
+  <si>
+    <t>用户名含非法字符，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "林平", 
+"username": "!@#$%^", 
+"gender":"男", 
+"job":"班主任", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户名只能包含字母和数字”</t>
+  </si>
+  <si>
+    <t>UI_emp_015</t>
+  </si>
+  <si>
+    <t>用户姓名为空，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "", 
+"username": "linping", 
+"gender":"男", 
+"job":"咨询师", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名是必填项”</t>
+  </si>
+  <si>
+    <t>UI_emp_016</t>
+  </si>
+  <si>
+    <t>用户姓名长度为1，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "林萍林萍林萍林萍林萍林", 
+"username": "linping", 
+"gender":"女", 
+"job":"班主任", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名长度必须在2到10个字符之间”</t>
+  </si>
+  <si>
+    <t>UI_emp_017</t>
+  </si>
+  <si>
+    <t>用户姓名长度为11，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>UI_emp_018</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "a", 
+"username": "linping", 
+"gender":"女", 
+"job":"学工主管", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名只能包含汉字”</t>
+  </si>
+  <si>
+    <t>UI_emp_019</t>
+  </si>
+  <si>
+    <t>性别为空，其余信息合法，添加失败</t>
+  </si>
+  <si>
+    <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"name": "a", 
+"username": "linping", 
+"gender":"女", 
+"job":"咨询师", 
+"entrydate": "2024-09-18",
+ "deptid": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“新增员工”弹框
+2.输入成功
+3.保存失败，提示“性别是必填项”</t>
+  </si>
+  <si>
+    <t>UI_emp_020</t>
+  </si>
+  <si>
+    <t>编辑员工</t>
+  </si>
+  <si>
+    <t>输入合法的用户名，用户姓名，性别，图 像，职位，入职日期，归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "image": "1.jpg","username": "liacdddfa","name": "林平之", "gender":"女","job":"班主任","entrydate": "2024-09-18","dept_id":"通讯部" }</t>
+  </si>
+  <si>
+    <t>1.点击测试员工的【编辑】按钮
+2.输入员工信息
+3.点击【保存】按钮</t>
+  </si>
+  <si>
+    <t>1.弹出“编辑员工”弹框
+2.输入成功
+3.保存成功，并在第一行找到修改后的员工信息</t>
+  </si>
+  <si>
+    <t>UI_emp_021</t>
+  </si>
+  <si>
+    <t>仅修改用户姓名，修改成功</t>
+  </si>
+  <si>
+    <t>UI_emp_022</t>
+  </si>
+  <si>
+    <t>仅修改性别，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15,
+"gender":"女"}</t>
+  </si>
+  <si>
+    <t>UI_emp_023</t>
+  </si>
+  <si>
+    <t>仅修改职位，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5,
+"job":"学工主管"}</t>
+  </si>
+  <si>
+    <t>UI_emp_024</t>
+  </si>
+  <si>
+    <t>仅修改入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>UI_emp_025</t>
+  </si>
+  <si>
+    <t>仅修改归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12,
+"dept_id":"通讯部"7}</t>
+  </si>
+  <si>
+    <t>UI_emp_026</t>
+  </si>
+  <si>
+    <t>修改性别、用户姓名，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "sahnkooaaa", "gender":"女" }</t>
+  </si>
+  <si>
+    <t>UI_emp_027</t>
+  </si>
+  <si>
+    <t>修改性别、职位，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender":"女", "job":"班主任" }</t>
+  </si>
+  <si>
+    <t>UI_emp_028</t>
+  </si>
+  <si>
+    <t>修改性别、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "gender":"男", "entrydate": "2024-07-18" }</t>
+  </si>
+  <si>
+    <t>UI_emp_029</t>
+  </si>
+  <si>
+    <t>修改性别、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender":"男", "dept_id":"咨询部"}</t>
+  </si>
+  <si>
+    <t>UI_emp_030</t>
+  </si>
+  <si>
+    <t>修改职位、用户姓名，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "name": "fulincanting", "job":"咨询师" }</t>
+  </si>
+  <si>
+    <t>UI_emp_031</t>
+  </si>
+  <si>
+    <t>修改职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>UI_emp_032</t>
+  </si>
+  <si>
+    <t>修改职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "job": 2, "dept_id":"咨询部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_033</t>
+  </si>
+  <si>
+    <t>修改用户姓名、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "linpasdi", "dept_id": "人事部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_034</t>
+  </si>
+  <si>
+    <t>修改用户姓名、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>UI_emp_035</t>
+  </si>
+  <si>
+    <t>修改归属部门、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "entrydate": "2024-03-18", "dept_id":"教研部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_036</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、职位，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "name": "晓红", "gender":"女", "job":"咨询师" }</t>
+  </si>
+  <si>
+    <t>UI_emp_037</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "name": "大强", "gender":"男", "entrydate": "2024-09-18" }</t>
+  </si>
+  <si>
+    <t>UI_emp_038</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "小丽", "gender":"女", "dept_id":"开发部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_039</t>
+  </si>
+  <si>
+    <t>修改用户姓名、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>UI_emp_040</t>
+  </si>
+  <si>
+    <t>修改用户姓名、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "赵云", "job":"班主任", "dept_id":"通讯部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_041</t>
+  </si>
+  <si>
+    <t>修改用户姓名、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "name": "张三", "entrydate": "2024-09-18", "dept_id":"人事部"}</t>
+  </si>
+  <si>
+    <t>UI_emp_042</t>
+  </si>
+  <si>
+    <t>修改性别、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender":"男", "job": 4, "entrydate": "2024-09-18" }</t>
+  </si>
+  <si>
+    <t>UI_emp_043</t>
+  </si>
+  <si>
+    <t>修改性别、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "gender":"女", "job":"学工主管", "dept_id":"研发部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_044</t>
+  </si>
+  <si>
+    <t>修改性别、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "gender":"男", "entrydate": "2024-09-18", "dept_id":"开发部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_045</t>
+  </si>
+  <si>
+    <t>修改职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "job":"咨询师", "entrydate": "2024-09-18", "dept_id":"教研部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_046</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "郑一", "gender":"男", "job":"班主任", "entrydate": "2024-09-18" }</t>
+  </si>
+  <si>
+    <t>UI_emp_047</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "name": "孙二", "gender":"女", "job":"咨询师", "dept_id":"开发部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_048</t>
+  </si>
+  <si>
+    <t>修改用户姓名、性别、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "李三", "gender":"男", "入职日期": "2024-09-18", "dept_id":"咨询部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_049</t>
+  </si>
+  <si>
+    <t>修改用户姓名、职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "name": "周四", "job": 4, "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_050</t>
+  </si>
+  <si>
+    <t>修改性别、职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender":"女", "job":"学工主管", "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
+  </si>
+  <si>
+    <t>UI_emp_051</t>
+  </si>
+  <si>
+    <t>用户姓名为空字符串，其余信息合法，修改失败</t>
+  </si>
+  <si>
+    <t>{ "id": 5,
+ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"username": "liang", 
+"name": "",
+ "gender":"女", 
+"job":"班主任", 
+"entrydate": "2024-09-18", 
+"deptId": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“编辑员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名是必填项”</t>
+  </si>
+  <si>
+    <t>UI_emp_052</t>
+  </si>
+  <si>
+    <t>用户姓名的长度为1，其余信息合法，修改失败</t>
+  </si>
+  <si>
+    <t>{ "id": 5,
+ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"username": "liang", 
+"name": "甲乙丙丁戊甲乙丙丁戊甲",
+ "gender":"女", 
+"job":"班主任", 
+"entrydate": "2024-09-18", 
+"deptId": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“编辑员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名长度必须在2到10个字符之间”</t>
+  </si>
+  <si>
+    <t>UI_emp_053</t>
+  </si>
+  <si>
+    <t>用户姓名的长度为11，其余信息合法，修改失败</t>
+  </si>
+  <si>
+    <t>UI_emp_054</t>
+  </si>
+  <si>
+    <t>用户姓名含非法字符，其余信息合法，修改失败</t>
+  </si>
+  <si>
+    <t>{ "id": 5,
+ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"username": "liang", 
+"name": "甲乙丙丁abc",
+ "gender":"女", 
+"job":"班主任", 
+"entrydate": "2024-09-18", 
+"deptId": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“编辑员工”弹框
+2.输入成功
+3.保存失败，提示“用户姓名只能包含汉字”</t>
+  </si>
+  <si>
+    <t>UI_emp_055</t>
+  </si>
+  <si>
+    <t>性别为空值，其余信息合法，修改失败</t>
+  </si>
+  <si>
+    <t>{ "id": 5,
+ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
+"username": "liang", 
+“gender”:null,
+"name": "甲乙丙",
+"job":"班主任", 
+"entrydate": "2024-09-18", 
+"deptId": 1 }</t>
+  </si>
+  <si>
+    <t>1.弹出“编辑员工”弹框
+2.输入成功
+3.保存失败，提示“性别是必填项”</t>
+  </si>
+  <si>
+    <t>UI_emp_056</t>
+  </si>
+  <si>
+    <t>删除指定员工，删除成功</t>
+  </si>
+  <si>
+    <t>1.点击测试员工行的【删除】按钮
+2.点击【确定】按钮</t>
+  </si>
+  <si>
+    <t>UI_emp_057</t>
+  </si>
+  <si>
+    <t>删除指定员工，取消删除</t>
+  </si>
+  <si>
+    <t>1.点击测试员工行的【删除】按钮
+2.点击【取消】按钮</t>
   </si>
 </sst>
 </file>
@@ -3082,13 +3796,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -3102,16 +3821,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3127,9 +3878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3138,15 +3886,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3502,290 +4241,290 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="5" width="67" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="8.88888888888889" style="20"/>
+    <col min="2" max="2" width="9.66666666666667" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="20"/>
+    <col min="4" max="4" width="9.11111111111111" style="20"/>
+    <col min="5" max="5" width="67" style="20" customWidth="1"/>
+    <col min="6" max="6" width="22.7777777777778" style="21" customWidth="1"/>
+    <col min="7" max="7" width="23.2222222222222" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="31" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="41.4" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="41.4" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="41.4" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="41.4" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="41.4" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" ht="41.4" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="41.4" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" ht="41.4" spans="1:7">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3807,516 +4546,516 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.11111111111111" style="23"/>
-    <col min="2" max="2" width="10.7777777777778" style="23" customWidth="1"/>
-    <col min="3" max="4" width="9.11111111111111" style="23"/>
-    <col min="5" max="5" width="40.5555555555556" style="24" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6666666666667" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9.11111111111111" style="1"/>
+    <col min="1" max="1" width="9.11111111111111" style="32"/>
+    <col min="2" max="2" width="10.7777777777778" style="32" customWidth="1"/>
+    <col min="3" max="4" width="9.11111111111111" style="32"/>
+    <col min="5" max="5" width="40.5555555555556" style="33" customWidth="1"/>
+    <col min="6" max="6" width="34.3333333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.6666666666667" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.11111111111111" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:7">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:7">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="41.4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" ht="41.4" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:7">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" ht="41.4" spans="1:7">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="D8" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" ht="41.4" spans="1:7">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="41.4" spans="1:7">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" ht="41.4" spans="1:7">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" ht="41.4" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="41.4" spans="1:7">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="41.4" spans="1:7">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" ht="41.4" spans="1:7">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="41.4" spans="1:7">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" ht="41.4" spans="1:7">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="41.4" spans="1:7">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" ht="41.4" spans="1:7">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" ht="41.4" spans="1:7">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" ht="41.4" spans="1:7">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" ht="41.4" spans="1:7">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4333,3434 +5072,3434 @@
   <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="9"/>
-    <col min="4" max="4" width="9.11111111111111" style="1"/>
-    <col min="5" max="5" width="41.6666666666667" style="11" customWidth="1"/>
-    <col min="6" max="6" width="37.5555555555556" style="11" customWidth="1"/>
-    <col min="7" max="7" width="33.6666666666667" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9"/>
+    <col min="1" max="1" width="13.1111111111111" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="23"/>
+    <col min="4" max="4" width="9.11111111111111" style="20"/>
+    <col min="5" max="5" width="41.6666666666667" style="24" customWidth="1"/>
+    <col min="6" max="6" width="37.5555555555556" style="24" customWidth="1"/>
+    <col min="7" max="7" width="33.6666666666667" style="24" customWidth="1"/>
+    <col min="8" max="8" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="20" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" ht="69" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" ht="69" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="C3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" ht="69" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" ht="69" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" ht="69" spans="1:8">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" ht="69" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" ht="69" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" ht="69" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" ht="69" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" ht="69" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" ht="69" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" ht="69" spans="1:8">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" ht="69" spans="1:8">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" ht="69" spans="1:8">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" ht="69" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" ht="69" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" ht="69" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" ht="69" spans="1:8">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" ht="110.4" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" ht="110.4" spans="1:8">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" ht="110.4" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" ht="110.4" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" ht="82.8" spans="1:8">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" ht="96.6" spans="1:8">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" ht="110.4" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" ht="82.8" spans="1:8">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" ht="82.8" spans="1:8">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" ht="41.4" spans="1:8">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" ht="41.4" spans="1:8">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" ht="41.4" spans="1:8">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" ht="41.4" spans="1:8">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" s="9" customFormat="1" ht="138" spans="1:8">
-      <c r="A33" s="12" t="s">
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" s="23" customFormat="1" ht="138" spans="1:8">
+      <c r="A33" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="14" t="s">
+      <c r="C33" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" s="9" customFormat="1" ht="55.2" spans="1:8">
-      <c r="A34" s="12" t="s">
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" s="23" customFormat="1" ht="55.2" spans="1:8">
+      <c r="A34" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" ht="124.2" spans="1:8">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" ht="138" spans="1:8">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="37" ht="138" spans="1:8">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="C37" s="28"/>
+      <c r="D37" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" ht="138" spans="1:8">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" ht="138" spans="1:8">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40" ht="124.2" spans="1:8">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="28"/>
+      <c r="D40" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" ht="138" spans="1:8">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="42" ht="138" spans="1:8">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" ht="138" spans="1:8">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="C43" s="28"/>
+      <c r="D43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="44" ht="138" spans="1:8">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="C44" s="28"/>
+      <c r="D44" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="45" ht="138" spans="1:8">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="28"/>
+      <c r="D45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="28"/>
     </row>
     <row r="46" ht="138" spans="1:8">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="C46" s="28"/>
+      <c r="D46" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="47" ht="138" spans="1:8">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="16" t="s">
+      <c r="C47" s="28"/>
+      <c r="D47" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="28"/>
     </row>
     <row r="48" ht="138" spans="1:8">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="C48" s="28"/>
+      <c r="D48" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="49" ht="138" spans="1:8">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="50" ht="138" spans="1:8">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="16" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="28"/>
     </row>
     <row r="51" ht="138" spans="1:8">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="C51" s="28"/>
+      <c r="D51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H51" s="15"/>
+      <c r="H51" s="28"/>
     </row>
     <row r="52" ht="138" spans="1:8">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="C52" s="28"/>
+      <c r="D52" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="53" ht="138" spans="1:8">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="28"/>
+      <c r="D53" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H53" s="15"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" ht="138" spans="1:8">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="C54" s="28"/>
+      <c r="D54" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="28"/>
     </row>
     <row r="55" ht="138" spans="1:8">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="C55" s="28"/>
+      <c r="D55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H55" s="15"/>
+      <c r="H55" s="28"/>
     </row>
     <row r="56" ht="110.4" spans="1:8">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="C56" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A57" s="19" t="s">
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A57" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="21" t="s">
+      <c r="C57" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H57" s="19"/>
-    </row>
-    <row r="58" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A58" s="19" t="s">
+      <c r="H57" s="31"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A58" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="21" t="s">
+      <c r="C58" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H58" s="19"/>
-    </row>
-    <row r="59" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A59" s="19" t="s">
+      <c r="H58" s="31"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A59" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="21" t="s">
+      <c r="C59" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="19"/>
-    </row>
-    <row r="60" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A60" s="19" t="s">
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A60" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="C60" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H60" s="19"/>
-    </row>
-    <row r="61" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A61" s="19" t="s">
+      <c r="H60" s="31"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A61" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="21" t="s">
+      <c r="C61" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H61" s="19"/>
-    </row>
-    <row r="62" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A62" s="19" t="s">
+      <c r="H61" s="31"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A62" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="21" t="s">
+      <c r="C62" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H62" s="19"/>
-    </row>
-    <row r="63" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A63" s="19" t="s">
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A63" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="21" t="s">
+      <c r="C63" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H63" s="19"/>
-    </row>
-    <row r="64" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A64" s="19" t="s">
+      <c r="H63" s="31"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A64" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="21" t="s">
+      <c r="C64" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H64" s="19"/>
-    </row>
-    <row r="65" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A65" s="19" t="s">
+      <c r="H64" s="31"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A65" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="21" t="s">
+      <c r="C65" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A66" s="19" t="s">
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A66" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="21" t="s">
+      <c r="C66" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H66" s="19"/>
-    </row>
-    <row r="67" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A67" s="19" t="s">
+      <c r="H66" s="31"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A67" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="21" t="s">
+      <c r="C67" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H67" s="19"/>
-    </row>
-    <row r="68" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A68" s="19" t="s">
+      <c r="H67" s="31"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A68" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C68" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="21" t="s">
+      <c r="C68" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H68" s="19"/>
-    </row>
-    <row r="69" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A69" s="19" t="s">
+      <c r="H68" s="31"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A69" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="21" t="s">
+      <c r="C69" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A70" s="19" t="s">
+      <c r="H69" s="31"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A70" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="21" t="s">
+      <c r="C70" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="G70" s="21" t="s">
+      <c r="G70" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H70" s="19"/>
-    </row>
-    <row r="71" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A71" s="19" t="s">
+      <c r="H70" s="31"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A71" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="21" t="s">
+      <c r="C71" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="G71" s="21" t="s">
+      <c r="G71" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H71" s="19"/>
-    </row>
-    <row r="72" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A72" s="19" t="s">
+      <c r="H71" s="31"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A72" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="21" t="s">
+      <c r="C72" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="G72" s="21" t="s">
+      <c r="G72" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H72" s="19"/>
-    </row>
-    <row r="73" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A73" s="19" t="s">
+      <c r="H72" s="31"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A73" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="21" t="s">
+      <c r="C73" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="G73" s="21" t="s">
+      <c r="G73" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H73" s="19"/>
-    </row>
-    <row r="74" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A74" s="19" t="s">
+      <c r="H73" s="31"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A74" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="21" t="s">
+      <c r="C74" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A75" s="19" t="s">
+      <c r="H74" s="31"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A75" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="C75" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A76" s="19" t="s">
+      <c r="H75" s="31"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A76" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="21" t="s">
+      <c r="C76" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="21" t="s">
+      <c r="G76" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A77" s="19" t="s">
+      <c r="H76" s="31"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A77" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="21" t="s">
+      <c r="C77" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A78" s="19" t="s">
+      <c r="H77" s="31"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A78" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="21" t="s">
+      <c r="C78" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="G78" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A79" s="19" t="s">
+      <c r="H78" s="31"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A79" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="21" t="s">
+      <c r="C79" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A80" s="19" t="s">
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A80" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="21" t="s">
+      <c r="C80" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="G80" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A81" s="19" t="s">
+      <c r="H80" s="31"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A81" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="21" t="s">
+      <c r="C81" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A82" s="19" t="s">
+      <c r="H81" s="31"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A82" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C82" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="21" t="s">
+      <c r="C82" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="G82" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A83" s="19" t="s">
+      <c r="H82" s="31"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A83" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="16" t="s">
+      <c r="C83" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A84" s="19" t="s">
+      <c r="H83" s="31"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A84" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E84" s="16" t="s">
+      <c r="C84" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="G84" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A85" s="19" t="s">
+      <c r="H84" s="31"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A85" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E85" s="16" t="s">
+      <c r="C85" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="G85" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A86" s="19" t="s">
+      <c r="H85" s="31"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A86" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C86" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="16" t="s">
+      <c r="C86" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="G86" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A87" s="19" t="s">
+      <c r="H86" s="31"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A87" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="16" t="s">
+      <c r="C87" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G87" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A88" s="19" t="s">
+      <c r="H87" s="31"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A88" s="31" t="s">
         <v>390</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E88" s="16" t="s">
+      <c r="C88" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G88" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A89" s="19" t="s">
+      <c r="H88" s="31"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A89" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C89" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E89" s="16" t="s">
+      <c r="C89" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="G89" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A90" s="19" t="s">
+      <c r="H89" s="31"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A90" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C90" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E90" s="16" t="s">
+      <c r="C90" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G90" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H90" s="19"/>
-    </row>
-    <row r="91" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A91" s="19" t="s">
+      <c r="H90" s="31"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A91" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E91" s="16" t="s">
+      <c r="C91" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H91" s="19"/>
-    </row>
-    <row r="92" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A92" s="19" t="s">
+      <c r="H91" s="31"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A92" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C92" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="16" t="s">
+      <c r="C92" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="G92" s="21" t="s">
+      <c r="G92" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H92" s="19"/>
-    </row>
-    <row r="93" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A93" s="19" t="s">
+      <c r="H92" s="31"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A93" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="16" t="s">
+      <c r="C93" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="G93" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H93" s="19"/>
-    </row>
-    <row r="94" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A94" s="19" t="s">
+      <c r="H93" s="31"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A94" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="16" t="s">
+      <c r="C94" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="G94" s="21" t="s">
+      <c r="G94" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A95" s="19" t="s">
+      <c r="H94" s="31"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A95" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="16" t="s">
+      <c r="C95" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H95" s="19"/>
-    </row>
-    <row r="96" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A96" s="19" t="s">
+      <c r="H95" s="31"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A96" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E96" s="16" t="s">
+      <c r="C96" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="G96" s="21" t="s">
+      <c r="G96" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H96" s="19"/>
-    </row>
-    <row r="97" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A97" s="19" t="s">
+      <c r="H96" s="31"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A97" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="16" t="s">
+      <c r="C97" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="G97" s="21" t="s">
+      <c r="G97" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H97" s="19"/>
-    </row>
-    <row r="98" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A98" s="19" t="s">
+      <c r="H97" s="31"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A98" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E98" s="16" t="s">
+      <c r="C98" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G98" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H98" s="19"/>
-    </row>
-    <row r="99" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A99" s="19" t="s">
+      <c r="H98" s="31"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A99" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E99" s="16" t="s">
+      <c r="C99" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G99" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H99" s="19"/>
-    </row>
-    <row r="100" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A100" s="19" t="s">
+      <c r="H99" s="31"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A100" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C100" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E100" s="16" t="s">
+      <c r="C100" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="G100" s="21" t="s">
+      <c r="G100" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H100" s="19"/>
-    </row>
-    <row r="101" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A101" s="19" t="s">
+      <c r="H100" s="31"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A101" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="16" t="s">
+      <c r="C101" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G101" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H101" s="19"/>
-    </row>
-    <row r="102" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A102" s="19" t="s">
+      <c r="H101" s="31"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A102" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C102" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="16" t="s">
+      <c r="C102" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="G102" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H102" s="19"/>
-    </row>
-    <row r="103" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A103" s="19" t="s">
+      <c r="H102" s="31"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A103" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E103" s="16" t="s">
+      <c r="C103" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="G103" s="21" t="s">
+      <c r="G103" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H103" s="19"/>
-    </row>
-    <row r="104" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A104" s="19" t="s">
+      <c r="H103" s="31"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A104" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C104" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E104" s="16" t="s">
+      <c r="C104" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G104" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H104" s="19"/>
-    </row>
-    <row r="105" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A105" s="19" t="s">
+      <c r="H104" s="31"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A105" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E105" s="16" t="s">
+      <c r="C105" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G105" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H105" s="19"/>
-    </row>
-    <row r="106" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A106" s="19" t="s">
+      <c r="H105" s="31"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A106" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E106" s="16" t="s">
+      <c r="C106" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="G106" s="21" t="s">
+      <c r="G106" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H106" s="19"/>
-    </row>
-    <row r="107" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A107" s="19" t="s">
+      <c r="H106" s="31"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A107" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="16" t="s">
+      <c r="C107" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="G107" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H107" s="19"/>
-    </row>
-    <row r="108" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A108" s="19" t="s">
+      <c r="H107" s="31"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A108" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="16" t="s">
+      <c r="C108" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G108" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H108" s="19"/>
-    </row>
-    <row r="109" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A109" s="19" t="s">
+      <c r="H108" s="31"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A109" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="16" t="s">
+      <c r="C109" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G109" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H109" s="19"/>
-    </row>
-    <row r="110" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A110" s="19" t="s">
+      <c r="H109" s="31"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A110" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C110" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E110" s="16" t="s">
+      <c r="C110" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G110" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H110" s="19"/>
-    </row>
-    <row r="111" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A111" s="19" t="s">
+      <c r="H110" s="31"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A111" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="16" t="s">
+      <c r="C111" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="G111" s="21" t="s">
+      <c r="G111" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H111" s="19"/>
-    </row>
-    <row r="112" s="10" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A112" s="19" t="s">
+      <c r="H111" s="31"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A112" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C112" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="16" t="s">
+      <c r="C112" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="G112" s="21" t="s">
+      <c r="G112" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H112" s="19"/>
+      <c r="H112" s="31"/>
     </row>
     <row r="113" ht="124.2" spans="1:8">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E113" s="16" t="s">
+      <c r="D113" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="G113" s="16" t="s">
+      <c r="G113" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H113" s="15"/>
+      <c r="H113" s="28"/>
     </row>
     <row r="114" ht="138" spans="1:8">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C114" s="15" t="s">
+      <c r="C114" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E114" s="16" t="s">
+      <c r="D114" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="F114" s="16" t="s">
+      <c r="F114" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G114" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H114" s="15"/>
+      <c r="H114" s="28"/>
     </row>
     <row r="115" ht="138" spans="1:8">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C115" s="15" t="s">
+      <c r="C115" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E115" s="16" t="s">
+      <c r="D115" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H115" s="15"/>
+      <c r="H115" s="28"/>
     </row>
     <row r="116" ht="124.2" spans="1:8">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C116" s="15" t="s">
+      <c r="C116" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E116" s="16" t="s">
+      <c r="D116" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F116" s="16" t="s">
+      <c r="F116" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G116" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H116" s="15"/>
+      <c r="H116" s="28"/>
     </row>
     <row r="117" ht="138" spans="1:8">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="16" t="s">
+      <c r="D117" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H117" s="15"/>
+      <c r="H117" s="28"/>
     </row>
     <row r="118" ht="138" spans="1:8">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E118" s="16" t="s">
+      <c r="D118" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="F118" s="16" t="s">
+      <c r="F118" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H118" s="15"/>
+      <c r="H118" s="28"/>
     </row>
     <row r="119" ht="138" spans="1:8">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="D119" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="F119" s="16" t="s">
+      <c r="F119" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H119" s="15"/>
+      <c r="H119" s="28"/>
     </row>
     <row r="120" ht="138" spans="1:8">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="C120" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="16" t="s">
+      <c r="D120" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="F120" s="16" t="s">
+      <c r="F120" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="G120" s="16" t="s">
+      <c r="G120" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H120" s="15"/>
+      <c r="H120" s="28"/>
     </row>
     <row r="121" ht="124.2" spans="1:8">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C121" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="16" t="s">
+      <c r="D121" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="F121" s="16" t="s">
+      <c r="F121" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H121" s="15"/>
+      <c r="H121" s="28"/>
     </row>
     <row r="122" ht="138" spans="1:8">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E122" s="16" t="s">
+      <c r="D122" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="F122" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H122" s="15"/>
+      <c r="H122" s="28"/>
     </row>
     <row r="123" ht="138" spans="1:8">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C123" s="15" t="s">
+      <c r="C123" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="16" t="s">
+      <c r="D123" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F123" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H123" s="15"/>
+      <c r="H123" s="28"/>
     </row>
     <row r="124" ht="138" spans="1:8">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C124" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="16" t="s">
+      <c r="D124" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="F124" s="16" t="s">
+      <c r="F124" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G124" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H124" s="15"/>
+      <c r="H124" s="28"/>
     </row>
     <row r="125" ht="124.2" spans="1:8">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E125" s="16" t="s">
+      <c r="D125" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H125" s="15"/>
+      <c r="H125" s="28"/>
     </row>
     <row r="126" ht="138" spans="1:8">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C126" s="15" t="s">
+      <c r="C126" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="16" t="s">
+      <c r="D126" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="F126" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H126" s="15"/>
+      <c r="H126" s="28"/>
     </row>
     <row r="127" ht="138" spans="1:8">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="16" t="s">
+      <c r="D127" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="F127" s="16" t="s">
+      <c r="F127" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H127" s="15"/>
+      <c r="H127" s="28"/>
     </row>
     <row r="128" ht="138" spans="1:8">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="31" t="s">
         <v>510</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="16" t="s">
+      <c r="D128" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G128" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H128" s="15"/>
+      <c r="H128" s="28"/>
     </row>
     <row r="129" ht="138" spans="1:8">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C129" s="15" t="s">
+      <c r="C129" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="16" t="s">
+      <c r="D129" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G129" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H129" s="15"/>
+      <c r="H129" s="28"/>
     </row>
     <row r="130" ht="138" spans="1:8">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" s="16" t="s">
+      <c r="D130" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G130" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H130" s="15"/>
+      <c r="H130" s="28"/>
     </row>
     <row r="131" ht="138" spans="1:8">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E131" s="16" t="s">
+      <c r="D131" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H131" s="15"/>
+      <c r="H131" s="28"/>
     </row>
     <row r="132" ht="138" spans="1:8">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="31" t="s">
         <v>522</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E132" s="16" t="s">
+      <c r="D132" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="F132" s="16" t="s">
+      <c r="F132" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="G132" s="16" t="s">
+      <c r="G132" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H132" s="15"/>
+      <c r="H132" s="28"/>
     </row>
     <row r="133" ht="138" spans="1:8">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="16" t="s">
+      <c r="D133" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G133" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H133" s="15"/>
+      <c r="H133" s="28"/>
     </row>
     <row r="134" ht="41.4" spans="1:8">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134" s="12" t="s">
+      <c r="C134" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="F134" s="12" t="s">
+      <c r="F134" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H134" s="12"/>
+      <c r="H134" s="25"/>
     </row>
     <row r="135" ht="41.4" spans="1:8">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="31" t="s">
         <v>532</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E135" s="16" t="s">
+      <c r="C135" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H135" s="15"/>
+      <c r="H135" s="28"/>
     </row>
     <row r="136" ht="41.4" spans="1:8">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E136" s="16" t="s">
+      <c r="D136" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="G136" s="16" t="s">
+      <c r="G136" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H136" s="15"/>
+      <c r="H136" s="28"/>
     </row>
     <row r="137" ht="41.4" spans="1:8">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E137" s="16" t="s">
+      <c r="D137" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="H137" s="28"/>
     </row>
     <row r="138" ht="41.4" spans="1:8">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="16" t="s">
+      <c r="D138" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="F138" s="16" t="s">
+      <c r="F138" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="H138" s="15"/>
+      <c r="H138" s="28"/>
     </row>
     <row r="139" ht="69" spans="1:8">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E139" s="14" t="s">
+      <c r="C139" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="F139" s="14" t="s">
+      <c r="F139" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="H139" s="12"/>
+      <c r="H139" s="25"/>
     </row>
     <row r="140" ht="41.4" spans="1:8">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C140" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E140" s="16" t="s">
+      <c r="D140" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G140" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="H140" s="15"/>
+      <c r="H140" s="28"/>
     </row>
     <row r="141" ht="41.4" spans="1:8">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C141" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E141" s="16" t="s">
+      <c r="D141" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="H141" s="15"/>
+      <c r="H141" s="28"/>
     </row>
     <row r="142" ht="41.4" spans="1:8">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C142" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E142" s="16" t="s">
+      <c r="D142" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="G142" s="16" t="s">
+      <c r="G142" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="H142" s="15"/>
+      <c r="H142" s="28"/>
     </row>
     <row r="143" ht="41.4" spans="1:8">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E143" s="16" t="s">
+      <c r="D143" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="F143" s="16" t="s">
+      <c r="F143" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="G143" s="16" t="s">
+      <c r="G143" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="H143" s="15"/>
+      <c r="H143" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7780,203 +8519,203 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="46" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="46.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5555555555556" style="20" customWidth="1"/>
+    <col min="2" max="4" width="9" style="20"/>
+    <col min="5" max="5" width="46" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.5555555555556" style="20" customWidth="1"/>
+    <col min="7" max="7" width="29.5555555555556" style="20" customWidth="1"/>
+    <col min="8" max="8" width="46.4444444444444" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>566</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="17" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>569</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="4" ht="41.4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="22" t="s">
         <v>572</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="17" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="17" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="6" ht="41.4" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="17" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="22" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="8" ht="69" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="17" t="s">
         <v>588</v>
       </c>
     </row>
@@ -7991,381 +8730,2071 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8888888888889" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.5555555555556" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1111111111111" style="20" customWidth="1"/>
+    <col min="2" max="3" width="9" style="20"/>
+    <col min="4" max="4" width="29.5555555555556" style="20" customWidth="1"/>
+    <col min="5" max="5" width="34.4444444444444" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19.8888888888889" style="21" customWidth="1"/>
+    <col min="7" max="7" width="31.5555555555556" style="20" customWidth="1"/>
+    <col min="8" max="8" width="43" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="17" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="4" ht="55.2" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="17" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="5" ht="55.2" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="17" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="6" ht="55.2" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="22" t="s">
         <v>608</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="17" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>610</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="17" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="8" ht="69" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="9" ht="41.4" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="17" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="10" ht="69" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="17" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="11" ht="69" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="17" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="12" ht="41.4" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="17" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="13" ht="41.4" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="14" ht="41.4" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="17" t="s">
         <v>643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="38.8888888888889" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.1111111111111" style="5" customWidth="1"/>
+    <col min="7" max="7" width="30.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="43.2222222222222" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" ht="55.2" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="41.4" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" ht="27.6" spans="1:8">
+      <c r="A9" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A10" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A12" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A13" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="27.6" spans="1:8">
+      <c r="A14" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" ht="151.8" spans="1:8">
+      <c r="A15" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="16" ht="41.4" spans="1:8">
+      <c r="A16" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" ht="179.4" spans="1:8">
+      <c r="A17" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" ht="207" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" ht="207" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" ht="179.4" spans="1:8">
+      <c r="A20" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>703</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" ht="193.2" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" ht="179.4" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" ht="193.2" spans="1:8">
+      <c r="A23" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" ht="193.2" spans="1:8">
+      <c r="A24" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="25" ht="179.4" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="26" ht="179.4" spans="1:8">
+      <c r="A26" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" ht="110.4" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" ht="41.4" spans="1:8">
+      <c r="A28" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="29" ht="41.4" spans="1:8">
+      <c r="A29" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="30" ht="41.4" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="31" ht="41.4" spans="1:8">
+      <c r="A31" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" ht="41.4" spans="1:8">
+      <c r="A32" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="33" ht="41.4" spans="1:8">
+      <c r="A33" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="34" ht="41.4" spans="1:8">
+      <c r="A34" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="35" ht="41.4" spans="1:8">
+      <c r="A35" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="36" ht="41.4" spans="1:8">
+      <c r="A36" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="37" ht="41.4" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="38" ht="41.4" spans="1:8">
+      <c r="A38" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" ht="41.4" spans="1:8">
+      <c r="A39" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" ht="41.4" spans="1:8">
+      <c r="A40" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="41" ht="41.4" spans="1:8">
+      <c r="A41" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="42" ht="41.4" spans="1:8">
+      <c r="A42" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" ht="41.4" spans="1:8">
+      <c r="A43" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44" ht="55.2" spans="1:8">
+      <c r="A44" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="45" ht="41.4" spans="1:8">
+      <c r="A45" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="46" ht="55.2" spans="1:8">
+      <c r="A46" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="47" ht="41.4" spans="1:8">
+      <c r="A47" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="48" ht="55.2" spans="1:8">
+      <c r="A48" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="49" ht="41.4" spans="1:8">
+      <c r="A49" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" ht="41.4" spans="1:8">
+      <c r="A50" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="51" ht="55.2" spans="1:8">
+      <c r="A51" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="52" ht="55.2" spans="1:8">
+      <c r="A52" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="53" ht="69" spans="1:8">
+      <c r="A53" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="54" ht="55.2" spans="1:8">
+      <c r="A54" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="55" ht="55.2" spans="1:8">
+      <c r="A55" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="56" ht="55.2" spans="1:8">
+      <c r="A56" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="57" ht="69" spans="1:8">
+      <c r="A57" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="58" ht="193.2" spans="1:8">
+      <c r="A58" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>819</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="59" ht="207" spans="1:8">
+      <c r="A59" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="60" ht="207" spans="1:8">
+      <c r="A60" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="61" ht="207" spans="1:8">
+      <c r="A61" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>829</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" ht="193.2" spans="1:8">
+      <c r="A62" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="63" ht="41.4" spans="1:8">
+      <c r="A63" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" ht="41.4" spans="1:8">
+      <c r="A64" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/员工管理系统-测试用例.xlsx
+++ b/员工管理系统-测试用例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="847">
   <si>
     <t>用例编号</t>
   </si>
@@ -831,18 +831,6 @@
     <t>emp_033</t>
   </si>
   <si>
-    <t>POST /emps - 合法的username、name及gender，其余信息为空，添加成功</t>
-  </si>
-  <si>
-    <t>POST /emps
-{ "username": "liangliang", 
-"name": "林平林萍林", 
-"gender": 2, }</t>
-  </si>
-  <si>
-    <t>emp_034</t>
-  </si>
-  <si>
     <t>POST /emps - username为空，其余信息合法，添加失败</t>
   </si>
   <si>
@@ -855,7 +843,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_035</t>
+    <t>emp_034</t>
   </si>
   <si>
     <t>POST /emps - username为空字符串，其余信息合法，添加失败</t>
@@ -874,7 +862,7 @@
     <t>添加成功</t>
   </si>
   <si>
-    <t>emp_036</t>
+    <t>emp_035</t>
   </si>
   <si>
     <t>POST /emps - username的长度为21，其余信息合法，添加失败</t>
@@ -890,7 +878,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_037</t>
+    <t>emp_036</t>
   </si>
   <si>
     <t>POST /emps - username已存在，其余信息合法，添加失败</t>
@@ -906,7 +894,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_038</t>
+    <t>emp_037</t>
   </si>
   <si>
     <t>POST /emps - username含非法字符，其余信息合法，添加失败</t>
@@ -922,7 +910,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_039</t>
+    <t>emp_038</t>
   </si>
   <si>
     <t>POST /emps - name为空，其余信息合法，添加失败</t>
@@ -937,7 +925,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_040</t>
+    <t>emp_039</t>
   </si>
   <si>
     <t>POST /emps - name为空字符串，其余信息合法，添加失败</t>
@@ -953,7 +941,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_041</t>
+    <t>emp_040</t>
   </si>
   <si>
     <t>POST /emps - name的长度为11，其余信息合法，添加失败</t>
@@ -969,7 +957,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_042</t>
+    <t>emp_041</t>
   </si>
   <si>
     <t>POST /emps - name含非法字符，其余信息合法，添加失败</t>
@@ -985,7 +973,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_043</t>
+    <t>emp_042</t>
   </si>
   <si>
     <t>POST /emps - gender为空，其余信息合法，添加失败</t>
@@ -1001,7 +989,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_044</t>
+    <t>emp_043</t>
   </si>
   <si>
     <t>POST /emps - gender为空值，其余信息合法，添加失败</t>
@@ -1017,7 +1005,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_045</t>
+    <t>emp_044</t>
   </si>
   <si>
     <t>POST /emps - gender为非法值，其余信息合法，添加失败</t>
@@ -1033,7 +1021,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_046</t>
+    <t>emp_045</t>
   </si>
   <si>
     <t>POST /emps - gender含非法字符，其余信息合法，添加失败</t>
@@ -1049,7 +1037,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_047</t>
+    <t>emp_046</t>
   </si>
   <si>
     <t>POST /emps - job为空值，其余信息合法，添加失败</t>
@@ -1065,7 +1053,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_048</t>
+    <t>emp_047</t>
   </si>
   <si>
     <t>POST /emps - job为非法值，其余信息合法，添加失败</t>
@@ -1081,7 +1069,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_049</t>
+    <t>emp_048</t>
   </si>
   <si>
     <t>POST /emps - job含非法字符，其余信息合法，添加失败</t>
@@ -1097,7 +1085,7 @@
  "deptid": 1 }</t>
   </si>
   <si>
-    <t>emp_050</t>
+    <t>emp_049</t>
   </si>
   <si>
     <t>POST /emps - deptid为空值，其余信息合法，添加成功</t>
@@ -1113,7 +1101,7 @@
  "deptid": null }</t>
   </si>
   <si>
-    <t>emp_051</t>
+    <t>emp_050</t>
   </si>
   <si>
     <t>POST /emps - deptid为非法值，其余信息合法，添加失败</t>
@@ -1129,7 +1117,7 @@
  "deptid": 0 }</t>
   </si>
   <si>
-    <t>emp_052</t>
+    <t>emp_051</t>
   </si>
   <si>
     <t>POST /emps - deptid含非法字符，其余信息合法，添加失败</t>
@@ -1145,7 +1133,7 @@
  "deptid": a }</t>
   </si>
   <si>
-    <t>emp_053</t>
+    <t>emp_052</t>
   </si>
   <si>
     <t>POST /emps - entrydate为空字符串，其余信息合法，添加失败</t>
@@ -1161,7 +1149,7 @@
  "deptid": 8 }</t>
   </si>
   <si>
-    <t>emp_054</t>
+    <t>emp_053</t>
   </si>
   <si>
     <t>POST /emps - entrydate为非法格式，其余信息合法，添加失败</t>
@@ -1177,7 +1165,7 @@
  "deptid": 8 }</t>
   </si>
   <si>
-    <t>emp_055</t>
+    <t>emp_054</t>
   </si>
   <si>
     <t>修改员工</t>
@@ -1196,7 +1184,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_056</t>
+    <t>emp_055</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改username，修改成功</t>
@@ -1206,7 +1194,7 @@
 "username": "abcdefghijklmn"}</t>
   </si>
   <si>
-    <t>emp_057</t>
+    <t>emp_056</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改name，修改成功</t>
@@ -1216,7 +1204,7 @@
 "name": "甲乙丙丁戊甲乙丙丁戊"}</t>
   </si>
   <si>
-    <t>emp_058</t>
+    <t>emp_057</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改gender，修改成功</t>
@@ -1226,7 +1214,7 @@
 "gender": 2}</t>
   </si>
   <si>
-    <t>emp_059</t>
+    <t>emp_058</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改job，修改成功</t>
@@ -1236,7 +1224,7 @@
 "job": 3}</t>
   </si>
   <si>
-    <t>emp_060</t>
+    <t>emp_059</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改entrydate，修改成功</t>
@@ -1246,7 +1234,7 @@
 "entrydate": "2024-09-18"}</t>
   </si>
   <si>
-    <t>emp_061</t>
+    <t>emp_060</t>
   </si>
   <si>
     <t>PUT /emps - 仅修改deptid，修改成功</t>
@@ -1256,457 +1244,457 @@
 "dept_id": 17}</t>
   </si>
   <si>
+    <t>emp_061</t>
+  </si>
+  <si>
+    <t>PUT /emps -修改username、name，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "username": "hahahahah", "name": "吴慧燕" }</t>
+  </si>
+  <si>
     <t>emp_062</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、name，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "username": "hahahahah", "name": "吴慧燕" }</t>
+    <t>PUT /emps -修改username、gender，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "username": "qweert", "gender": 1 }</t>
   </si>
   <si>
     <t>emp_063</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、gender，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "username": "qweert", "gender": 1 }</t>
+    <t>PUT /emps -修改username、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "username": "skfabk", "job": 2 }</t>
   </si>
   <si>
     <t>emp_064</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "username": "skfabk", "job": 2 }</t>
+    <t>PUT /emps -修改username、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "mahsklio", "entrydate": "2023-08-18" }</t>
   </si>
   <si>
     <t>emp_065</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "mahsklio", "entrydate": "2023-08-18" }</t>
+    <t>PUT /emps -修改username、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "username": "bsnoal", "dept_id": 4 }</t>
   </si>
   <si>
     <t>emp_066</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "username": "bsnoal", "dept_id": 4 }</t>
+    <t>PUT /emps -修改gender、name，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "sahnkooaaa", "gender": 2 }</t>
   </si>
   <si>
     <t>emp_067</t>
   </si>
   <si>
-    <t>PUT /emps -修改gender、name，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "name": "sahnkooaaa", "gender": 2 }</t>
+    <t>PUT /emps -修改gender、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender":2, "job": 1 }</t>
   </si>
   <si>
     <t>emp_068</t>
   </si>
   <si>
-    <t>PUT /emps -修改gender、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "gender":2, "job": 1 }</t>
+    <t>PUT /emps -修改gender、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "gender": 1, "entrydate": "2024-07-18" }</t>
   </si>
   <si>
     <t>emp_069</t>
   </si>
   <si>
-    <t>PUT /emps -修改gender、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "gender": 1, "entrydate": "2024-07-18" }</t>
+    <t>PUT /emps -修改gender、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender": 1, "dept_id": 3}</t>
   </si>
   <si>
     <t>emp_070</t>
   </si>
   <si>
-    <t>PUT /emps -修改gender、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "gender": 1, "dept_id": 3}</t>
+    <t>PUT /emps -修改job、name，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "name": "fulincanting", "job": 5 }</t>
   </si>
   <si>
     <t>emp_071</t>
   </si>
   <si>
-    <t>PUT /emps -修改job、name，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "name": "fulincanting", "job": 5 }</t>
+    <t>PUT /emps -修改job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "job": 4, "entrydate": "2022-09-18" }</t>
   </si>
   <si>
     <t>emp_072</t>
   </si>
   <si>
-    <t>PUT /emps -修改job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "job": 4, "entrydate": "2022-09-18" }</t>
+    <t>PUT /emps -修改job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "job": 2, "dept_id": 3 }</t>
   </si>
   <si>
     <t>emp_073</t>
   </si>
   <si>
-    <t>PUT /emps -修改job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "job": 2, "dept_id": 3 }</t>
+    <t>PUT /emps -修改name、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "linpasdi", "dept_id": "2024-07-18" }</t>
   </si>
   <si>
     <t>emp_074</t>
   </si>
   <si>
-    <t>PUT /emps -修改name、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "name": "linpasdi", "dept_id": "2024-07-18" }</t>
+    <t>PUT /emps -修改name、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "name": "lafgjcy", "entrydate": "2024-04-18" }</t>
   </si>
   <si>
     <t>emp_075</t>
   </si>
   <si>
-    <t>PUT /emps -修改name、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "name": "lafgjcy", "entrydate": "2024-04-18" }</t>
+    <t>PUT /emps -修改deptid、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "entrydate": "2024-03-18", "dept_id": 2 }</t>
   </si>
   <si>
     <t>emp_076</t>
   </si>
   <si>
-    <t>PUT /emps -修改deptid、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "entrydate": "2024-03-18", "dept_id": 2 }</t>
+    <t>PUT /emps -修改username、name、gender，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "username": "lincvbnmi", "name": "阿年", "gender": 2 }</t>
   </si>
   <si>
     <t>emp_077</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、name、gender，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "username": "lincvbnmi", "name": "阿年", "gender": 2 }</t>
+    <t>PUT /emps -修改username、name、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "liabnskihg", "name": "一一一一", "job": 4 }</t>
   </si>
   <si>
     <t>emp_078</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、name、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "liabnskihg", "name": "一一一一", "job": 4 }</t>
+    <t>PUT /emps -修改username、name、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "username": "linpingzhi", "name": "linpingzhi", "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_079</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、name、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "username": "linpingzhi", "name": "linpingzhi", "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps -修改username、name、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "user2", "name": "小明", "dept_id": 3 }</t>
   </si>
   <si>
     <t>emp_080</t>
   </si>
   <si>
-    <t>PUT /emps -修改username、name、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "user2", "name": "小明", "dept_id": 3 }</t>
+    <t>PUT /emps - 修改username、gender、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "username": "user3", "gender": 1, "job": 2 }</t>
+  </si>
+  <si>
+    <t>emp_081</t>
+  </si>
+  <si>
+    <t>PUT /emps - 修改username、gender、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "username": "user4", "gender": 1, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_082</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "username": "user3", "gender": 1, "job": 2 }</t>
+    <t>PUT /emps - 修改username、gender、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "username": "user5", "gender": 2, "dept_id": 5 }</t>
   </si>
   <si>
     <t>emp_083</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "username": "user4", "gender": 1, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改username、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "username": "user6", "job": 4, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_084</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "username": "user5", "gender": 2, "dept_id": 5 }</t>
+    <t>PUT /emps - 修改username、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "username": "user7", "job": 3, "dept_id": 2 }</t>
   </si>
   <si>
     <t>emp_085</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "username": "user6", "job": 4, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改username、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "user8", "entrydate": "2024-09-18", "dept_id": 4 }</t>
   </si>
   <si>
     <t>emp_086</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "username": "user7", "job": 3, "dept_id": 2 }</t>
+    <t>PUT /emps - 修改name、gender、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "name": "晓红", "gender": 2, "job": 5 }</t>
   </si>
   <si>
     <t>emp_087</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "user8", "entrydate": "2024-09-18", "dept_id": 4 }</t>
+    <t>PUT /emps - 修改name、gender、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "name": "大强", "gender": 1, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_088</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "name": "晓红", "gender": 2, "job": 5 }</t>
+    <t>PUT /emps - 修改name、gender、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "小丽", "gender": 2, "dept_id": 8 }</t>
   </si>
   <si>
     <t>emp_089</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "name": "大强", "gender": 1, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改name、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "name": "王伟", "job": 2, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_090</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "name": "小丽", "gender": 2, "dept_id": 8 }</t>
+    <t>PUT /emps - 修改name、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "赵云", "job": 1, "dept_id": 1 }</t>
   </si>
   <si>
     <t>emp_091</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "name": "王伟", "job": 2, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改name、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "name": "张三", "entrydate": "2024-09-18", "dept_id": 6 }</t>
   </si>
   <si>
     <t>emp_092</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "name": "赵云", "job": 1, "dept_id": 1 }</t>
+    <t>PUT /emps - 修改gender、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender": 1, "job": 4, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_093</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "name": "张三", "entrydate": "2024-09-18", "dept_id": 6 }</t>
+    <t>PUT /emps - 修改gender、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "gender": 2, "job": 3, "dept_id": 7 }</t>
   </si>
   <si>
     <t>emp_094</t>
   </si>
   <si>
-    <t>PUT /emps - 修改gender、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "gender": 1, "job": 4, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改gender、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "gender": 1, "entrydate": "2024-09-18", "dept_id": 8 }</t>
   </si>
   <si>
     <t>emp_095</t>
   </si>
   <si>
-    <t>PUT /emps - 修改gender、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "gender": 2, "job": 3, "dept_id": 7 }</t>
+    <t>PUT /emps - 修改job、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "job": 5, "entrydate": "2024-09-18", "dept_id": 2 }</t>
   </si>
   <si>
     <t>emp_096</t>
   </si>
   <si>
-    <t>PUT /emps - 修改gender、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "gender": 1, "entrydate": "2024-09-18", "dept_id": 8 }</t>
+    <t>PUT /emps - 修改username、name、gender、job，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "username": "user9", "name": "李四", "gender": 2, "job": 2 }</t>
   </si>
   <si>
     <t>emp_097</t>
   </si>
   <si>
-    <t>PUT /emps - 修改job、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "job": 5, "entrydate": "2024-09-18", "dept_id": 2 }</t>
+    <t>PUT /emps - 修改username、name、gender、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "user10", "name": "王五", "gender": 1, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_098</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、gender、job，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "username": "user9", "name": "李四", "gender": 2, "job": 2 }</t>
+    <t>PUT /emps - 修改username、name、gender、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "username": "user11", "name": "赵六", "gender": 2, "dept_id": 3 }</t>
   </si>
   <si>
     <t>emp_099</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、gender、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "user10", "name": "王五", "gender": 1, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改username、name、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "username": "user12", "name": "孙七", "job": 4, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_100</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、gender、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "username": "user11", "name": "赵六", "gender": 2, "dept_id": 3 }</t>
+    <t>PUT /emps - 修改username、name、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "username": "user13", "name": "周八", "job": 1, "dept_id": 5 }</t>
   </si>
   <si>
     <t>emp_101</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "username": "user12", "name": "孙七", "job": 4, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改username、name、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "username": "user14", "name": "吴九", "entrydate": "2024-09-18", "dept_id": 4 }</t>
   </si>
   <si>
     <t>emp_102</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "username": "user13", "name": "周八", "job": 1, "dept_id": 5 }</t>
+    <t>PUT /emps - 修改username、gender、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "username": "user15", "gender": 2, "job": 3, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_103</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、name、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "username": "user14", "name": "吴九", "entrydate": "2024-09-18", "dept_id": 4 }</t>
+    <t>PUT /emps - 修改username、gender、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "username": "user16", "gender": 1, "job": 4, "dept_id": 2 }</t>
   </si>
   <si>
     <t>emp_104</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "username": "user15", "gender": 2, "job": 3, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改username、gender、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "username": "user17", "gender": 2, "entrydate": "2024-09-18", "dept_id": 7 }</t>
   </si>
   <si>
     <t>emp_105</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "username": "user16", "gender": 1, "job": 4, "dept_id": 2 }</t>
+    <t>PUT /emps - 修改username、job、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 15, "username": "user18", "job": 2, "entrydate": "2024-09-18", "dept_id": 1 }</t>
   </si>
   <si>
     <t>emp_106</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、gender、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "username": "user17", "gender": 2, "entrydate": "2024-09-18", "dept_id": 7 }</t>
+    <t>PUT /emps - 修改name、gender、job、entrydate，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 30, "name": "郑一", "gender": 1, "job": 1, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>emp_107</t>
   </si>
   <si>
-    <t>PUT /emps - 修改username、job、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 15, "username": "user18", "job": 2, "entrydate": "2024-09-18", "dept_id": 1 }</t>
+    <t>PUT /emps - 修改name、gender、job、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 32, "name": "孙二", "gender": 2, "job": 5, "dept_id": 8 }</t>
   </si>
   <si>
     <t>emp_108</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、job、entrydate，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 30, "name": "郑一", "gender": 1, "job": 1, "entrydate": "2024-09-18" }</t>
+    <t>PUT /emps - 修改name、gender、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 5, "name": "李三", "gender": 1, "entrydate": "2024-09-18", "dept_id": 3 }</t>
   </si>
   <si>
     <t>emp_109</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、job、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 32, "name": "孙二", "gender": 2, "job": 5, "dept_id": 8 }</t>
+    <t>PUT /emps - 修改name、job、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 9, "name": "周四", "job": 4, "entrydate": "2024-09-18", "dept_id": 6 }</t>
   </si>
   <si>
     <t>emp_110</t>
   </si>
   <si>
-    <t>PUT /emps - 修改name、gender、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 5, "name": "李三", "gender": 1, "entrydate": "2024-09-18", "dept_id": 3 }</t>
+    <t>PUT /emps - 修改gender、job、entrydate、deptid，修改成功</t>
+  </si>
+  <si>
+    <t>{ "id": 12, "gender": 2, "job": 3, "entrydate": "2024-09-18", "dept_id": 5 }</t>
   </si>
   <si>
     <t>emp_111</t>
-  </si>
-  <si>
-    <t>PUT /emps - 修改name、job、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 9, "name": "周四", "job": 4, "entrydate": "2024-09-18", "dept_id": 6 }</t>
-  </si>
-  <si>
-    <t>emp_112</t>
-  </si>
-  <si>
-    <t>PUT /emps - 修改gender、job、entrydate、deptid，修改成功</t>
-  </si>
-  <si>
-    <t>{ "id": 12, "gender": 2, "job": 3, "entrydate": "2024-09-18", "dept_id": 5 }</t>
-  </si>
-  <si>
-    <t>emp_113</t>
   </si>
   <si>
     <t>PUT /emps - id为空，其余信息合法，修改失败</t>
@@ -1721,7 +1709,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_114</t>
+    <t>emp_112</t>
   </si>
   <si>
     <t>PUT /emps - id为空值，其余信息合法，修改失败</t>
@@ -1737,7 +1725,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_115</t>
+    <t>emp_113</t>
   </si>
   <si>
     <t>PUT /emps - id为不存在，其余信息合法，修改失败</t>
@@ -1753,7 +1741,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_116</t>
+    <t>emp_114</t>
   </si>
   <si>
     <t>PUT /emps - username为空，其余信息合法，修改失败</t>
@@ -1768,7 +1756,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_117</t>
+    <t>emp_115</t>
   </si>
   <si>
     <t>PUT /emps - username为空字符串，其余信息合法，修改失败</t>
@@ -1784,7 +1772,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_118</t>
+    <t>emp_116</t>
   </si>
   <si>
     <t>PUT /emps - username已存在，其余信息合法，修改失败</t>
@@ -1800,7 +1788,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_119</t>
+    <t>emp_117</t>
   </si>
   <si>
     <t>PUT /emps - username的长度为21，其余信息合法，修改失败</t>
@@ -1816,7 +1804,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_120</t>
+    <t>emp_118</t>
   </si>
   <si>
     <t>PUT /emps - username含非法字符，其余信息合法，修改失败</t>
@@ -1832,7 +1820,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_121</t>
+    <t>emp_119</t>
   </si>
   <si>
     <t>PUT /emps - name为空，其余信息合法，修改失败</t>
@@ -1847,7 +1835,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_122</t>
+    <t>emp_120</t>
   </si>
   <si>
     <t>PUT /emps - name为空字符串，其余信息合法，修改失败</t>
@@ -1863,7 +1851,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_123</t>
+    <t>emp_121</t>
   </si>
   <si>
     <t>PUT /emps - name的长度为11，其余信息合法，修改失败</t>
@@ -1879,7 +1867,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_124</t>
+    <t>emp_122</t>
   </si>
   <si>
     <t>PUT /emps - name含非法字符，其余信息合法，修改失败</t>
@@ -1895,7 +1883,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_125</t>
+    <t>emp_123</t>
   </si>
   <si>
     <t>PUT /emps - gender为空，其余信息合法，修改失败</t>
@@ -1910,7 +1898,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_126</t>
+    <t>emp_124</t>
   </si>
   <si>
     <t>PUT /emps - gender为空值，其余信息合法，修改失败</t>
@@ -1926,7 +1914,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_127</t>
+    <t>emp_125</t>
   </si>
   <si>
     <t>PUT /emps - gender为非法值，其余信息合法，修改失败</t>
@@ -1942,7 +1930,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_128</t>
+    <t>emp_126</t>
   </si>
   <si>
     <t>PUT /emps - gender含非法字符，其余信息合法，修改失败</t>
@@ -1958,7 +1946,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_129</t>
+    <t>emp_127</t>
   </si>
   <si>
     <t>PUT /emps - job为非法值，其余信息合法，修改失败</t>
@@ -1974,7 +1962,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_130</t>
+    <t>emp_128</t>
   </si>
   <si>
     <t>PUT /emps - job含非法字符，其余信息合法，修改失败</t>
@@ -1990,7 +1978,7 @@
 "deptId": 1 }</t>
   </si>
   <si>
-    <t>emp_131</t>
+    <t>emp_129</t>
   </si>
   <si>
     <t>PUT /emps - deptid为非法值，其余信息合法，修改失败</t>
@@ -2006,7 +1994,7 @@
 "deptId": 11 }</t>
   </si>
   <si>
-    <t>emp_132</t>
+    <t>emp_130</t>
   </si>
   <si>
     <t>PUT /emps - deptid含非法字符，其余信息合法，修改失败</t>
@@ -2022,7 +2010,7 @@
 "deptId": 1! }</t>
   </si>
   <si>
-    <t>emp_133</t>
+    <t>emp_131</t>
   </si>
   <si>
     <t>PUT /emps - entrydate为非法格式，其余信息合法，修改失败</t>
@@ -2038,55 +2026,55 @@
 "deptId": 4 }</t>
   </si>
   <si>
+    <t>emp_132</t>
+  </si>
+  <si>
+    <t>删除员工</t>
+  </si>
+  <si>
+    <t>DELETE /emps/{ids} -一个存在的id，删除成功</t>
+  </si>
+  <si>
+    <t>DELETE /emps/32</t>
+  </si>
+  <si>
+    <t>emp_133</t>
+  </si>
+  <si>
+    <t>DELETE /emps/{ids} -两个存在的id，删除成功</t>
+  </si>
+  <si>
+    <t>DELETE /emps/15,16</t>
+  </si>
+  <si>
     <t>emp_134</t>
   </si>
   <si>
-    <t>删除员工</t>
-  </si>
-  <si>
-    <t>DELETE /emps/{ids} -一个存在的id，删除成功</t>
-  </si>
-  <si>
-    <t>DELETE /emps/32</t>
+    <t>DELETE /emps/{ids} -一个不存在的id，删除失败</t>
+  </si>
+  <si>
+    <t>DELETE /emps/50</t>
   </si>
   <si>
     <t>emp_135</t>
   </si>
   <si>
-    <t>DELETE /emps/{ids} -两个存在的id，删除成功</t>
-  </si>
-  <si>
-    <t>DELETE /emps/15,16</t>
+    <t>DELETE /emps/{ids} -一个存在的id，一个不存在的ID，删除失败</t>
+  </si>
+  <si>
+    <t>DELETE /emps/10,51</t>
   </si>
   <si>
     <t>emp_136</t>
   </si>
   <si>
-    <t>DELETE /emps/{ids} -一个不存在的id，删除失败</t>
-  </si>
-  <si>
-    <t>DELETE /emps/50</t>
+    <t>DELETE /emps/{ids} -含非法字符，删除失败</t>
+  </si>
+  <si>
+    <t>DELETE /emps/a</t>
   </si>
   <si>
     <t>emp_137</t>
-  </si>
-  <si>
-    <t>DELETE /emps/{ids} -一个存在的id，一个不存在的ID，删除失败</t>
-  </si>
-  <si>
-    <t>DELETE /emps/10,51</t>
-  </si>
-  <si>
-    <t>emp_138</t>
-  </si>
-  <si>
-    <t>DELETE /emps/{ids} -含非法字符，删除失败</t>
-  </si>
-  <si>
-    <t>DELETE /emps/a</t>
-  </si>
-  <si>
-    <t>emp_139</t>
   </si>
   <si>
     <t>文件上传</t>
@@ -2104,7 +2092,7 @@
 "data": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-02-00-27-0400.jpg" }</t>
   </si>
   <si>
-    <t>emp_140</t>
+    <t>emp_138</t>
   </si>
   <si>
     <t>POST /upload -格式不为jpg、png及JPEG的文件路径，上传失败</t>
@@ -2119,7 +2107,7 @@
 "data": null }</t>
   </si>
   <si>
-    <t>emp_141</t>
+    <t>emp_139</t>
   </si>
   <si>
     <t>POST /upload -大于2M的文件路径，上传失败</t>
@@ -2129,7 +2117,7 @@
 test1.jpg</t>
   </si>
   <si>
-    <t>emp_142</t>
+    <t>emp_140</t>
   </si>
   <si>
     <t>POST /upload -文件路径为空，上传失败</t>
@@ -2138,7 +2126,7 @@
     <t>POST /upload</t>
   </si>
   <si>
-    <t>emp_143</t>
+    <t>emp_141</t>
   </si>
   <si>
     <t>POST /upload -不存在的文件路径，上传失败</t>
@@ -2593,20 +2581,6 @@
   </si>
   <si>
     <t>UI_emp_015</t>
-  </si>
-  <si>
-    <t>输入合法的用户名，用户姓名，性别，添加成功</t>
-  </si>
-  <si>
-    <t>{"username":"liangliang","name":"林平林萍林","gender":"女"}</t>
-  </si>
-  <si>
-    <t>1.点击【新增员工】按钮
-2.编辑员工信息
-3.点击【保存】按钮</t>
-  </si>
-  <si>
-    <t>UI_emp_016</t>
   </si>
   <si>
     <t>不输入用户名，其余信息合法，添加失败</t>
@@ -2621,12 +2595,17 @@
  "dept_id":"开发部"}</t>
   </si>
   <si>
+    <t>1.点击【新增员工】按钮
+2.编辑员工信息
+3.点击【保存】按钮</t>
+  </si>
+  <si>
     <t>1.弹出“新增员工”弹框
 2.输入成功
 3.保存失败，提示“用户名是必填项”</t>
   </si>
   <si>
-    <t>UI_emp_017</t>
+    <t>UI_emp_016</t>
   </si>
   <si>
     <t>用户名的长度为1，其余信息合法，添加失败</t>
@@ -2646,13 +2625,13 @@
 3.保存失败，提示“用户名长度必须在2到20个字符之间”</t>
   </si>
   <si>
+    <t>UI_emp_017</t>
+  </si>
+  <si>
+    <t>用户名的长度为21，其余信息合法，添加失败</t>
+  </si>
+  <si>
     <t>UI_emp_018</t>
-  </si>
-  <si>
-    <t>用户名的长度为21，其余信息合法，添加失败</t>
-  </si>
-  <si>
-    <t>UI_emp_019</t>
   </si>
   <si>
     <t>用户名已存在，其余信息合法，添加失败</t>
@@ -2672,7 +2651,7 @@
 3.保存失败，提示“当前用户名已存在，请重新输入”</t>
   </si>
   <si>
-    <t>UI_emp_020</t>
+    <t>UI_emp_019</t>
   </si>
   <si>
     <t>用户名含非法字符，其余信息合法，添加失败</t>
@@ -2692,7 +2671,7 @@
 3.保存失败，提示“用户名只能包含字母和数字”</t>
   </si>
   <si>
-    <t>UI_emp_021</t>
+    <t>UI_emp_020</t>
   </si>
   <si>
     <t>用户姓名为空，其余信息合法，添加失败</t>
@@ -2712,7 +2691,7 @@
 3.保存失败，提示“用户姓名是必填项”</t>
   </si>
   <si>
-    <t>UI_emp_022</t>
+    <t>UI_emp_021</t>
   </si>
   <si>
     <t>用户姓名长度为1，其余信息合法，添加失败</t>
@@ -2732,13 +2711,13 @@
 3.保存失败，提示“用户姓名长度必须在2到10个字符之间”</t>
   </si>
   <si>
+    <t>UI_emp_022</t>
+  </si>
+  <si>
+    <t>用户姓名长度为11，其余信息合法，添加失败</t>
+  </si>
+  <si>
     <t>UI_emp_023</t>
-  </si>
-  <si>
-    <t>用户姓名长度为11，其余信息合法，添加失败</t>
-  </si>
-  <si>
-    <t>UI_emp_024</t>
   </si>
   <si>
     <t>{ "image": "https://web-framework.oss-cn- hangzhou.aliyuncs.com/2024-09-03-07-37-38222.jpg", 
@@ -2755,7 +2734,7 @@
 3.保存失败，提示“用户姓名只能包含汉字”</t>
   </si>
   <si>
-    <t>UI_emp_025</t>
+    <t>UI_emp_024</t>
   </si>
   <si>
     <t>性别为空，其余信息合法，添加失败</t>
@@ -2775,7 +2754,7 @@
 3.保存失败，提示“性别是必填项”</t>
   </si>
   <si>
-    <t>UI_emp_026</t>
+    <t>UI_emp_025</t>
   </si>
   <si>
     <t>编辑员工</t>
@@ -2797,7 +2776,7 @@
 3.保存成功，并在第一行找到修改后的员工信息</t>
   </si>
   <si>
-    <t>UI_emp_027</t>
+    <t>UI_emp_026</t>
   </si>
   <si>
     <t>仅修改用户姓名，修改成功</t>
@@ -2807,7 +2786,7 @@
 "name": "甲乙丙丁戊甲乙丙丁戊"}</t>
   </si>
   <si>
-    <t>UI_emp_028</t>
+    <t>UI_emp_027</t>
   </si>
   <si>
     <t>仅修改性别，修改成功</t>
@@ -2817,7 +2796,7 @@
 "gender":"女"}</t>
   </si>
   <si>
-    <t>UI_emp_029</t>
+    <t>UI_emp_028</t>
   </si>
   <si>
     <t>仅修改职位，修改成功</t>
@@ -2827,7 +2806,7 @@
 "job":"学工主管"}</t>
   </si>
   <si>
-    <t>UI_emp_030</t>
+    <t>UI_emp_029</t>
   </si>
   <si>
     <t>仅修改入职日期，修改成功</t>
@@ -2837,7 +2816,7 @@
 "entrydate": "2024-09-18"}</t>
   </si>
   <si>
-    <t>UI_emp_031</t>
+    <t>UI_emp_030</t>
   </si>
   <si>
     <t>仅修改归属部门，修改成功</t>
@@ -2847,232 +2826,232 @@
 "dept_id":"通讯部"7}</t>
   </si>
   <si>
+    <t>UI_emp_031</t>
+  </si>
+  <si>
+    <t>修改性别、用户姓名，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "sahnkooaaa", "gender":"女" }</t>
+  </si>
+  <si>
     <t>UI_emp_032</t>
   </si>
   <si>
-    <t>修改性别、用户姓名，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "sahnkooaaa", "gender":"女" }</t>
+    <t>修改性别、职位，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"女", "job":"班主任" }</t>
   </si>
   <si>
     <t>UI_emp_033</t>
   </si>
   <si>
-    <t>修改性别、职位，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"女", "job":"班主任" }</t>
+    <t>修改性别、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"男", "entrydate": "2024-07-18" }</t>
   </si>
   <si>
     <t>UI_emp_034</t>
   </si>
   <si>
-    <t>修改性别、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"男", "entrydate": "2024-07-18" }</t>
+    <t>修改性别、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"男", "dept_id":"咨询部"}</t>
   </si>
   <si>
     <t>UI_emp_035</t>
   </si>
   <si>
-    <t>修改性别、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"男", "dept_id":"咨询部"}</t>
+    <t>修改职位、用户姓名，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "fulincanting", "job":"咨询师" }</t>
   </si>
   <si>
     <t>UI_emp_036</t>
   </si>
   <si>
-    <t>修改职位、用户姓名，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "fulincanting", "job":"咨询师" }</t>
+    <t>修改职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "job": 4, "entrydate": "2022-09-18" }</t>
   </si>
   <si>
     <t>UI_emp_037</t>
   </si>
   <si>
-    <t>修改职位、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "job": 4, "entrydate": "2022-09-18" }</t>
+    <t>修改职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "job": 2, "dept_id":"咨询部" }</t>
   </si>
   <si>
     <t>UI_emp_038</t>
   </si>
   <si>
-    <t>修改职位、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "job": 2, "dept_id":"咨询部" }</t>
+    <t>修改用户姓名、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "linpasdi", "dept_id": "人事部" }</t>
   </si>
   <si>
     <t>UI_emp_039</t>
   </si>
   <si>
-    <t>修改用户姓名、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "linpasdi", "dept_id": "人事部" }</t>
+    <t>修改用户姓名、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "lafgjcy", "entrydate": "2024-04-18" }</t>
   </si>
   <si>
     <t>UI_emp_040</t>
   </si>
   <si>
-    <t>修改用户姓名、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "lafgjcy", "entrydate": "2024-04-18" }</t>
+    <t>修改归属部门、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "entrydate": "2024-03-18", "dept_id":"教研部" }</t>
   </si>
   <si>
     <t>UI_emp_041</t>
   </si>
   <si>
-    <t>修改归属部门、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "entrydate": "2024-03-18", "dept_id":"教研部" }</t>
+    <t>修改用户姓名、性别、职位，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "晓红", "gender":"女", "job":"咨询师" }</t>
   </si>
   <si>
     <t>UI_emp_042</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、职位，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "晓红", "gender":"女", "job":"咨询师" }</t>
+    <t>修改用户姓名、性别、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "大强", "gender":"男", "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>UI_emp_043</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "大强", "gender":"男", "entrydate": "2024-09-18" }</t>
+    <t>修改用户姓名、性别、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "小丽", "gender":"女", "dept_id":"开发部" }</t>
   </si>
   <si>
     <t>UI_emp_044</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "小丽", "gender":"女", "dept_id":"开发部" }</t>
+    <t>修改用户姓名、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "王伟", "job": 2, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>UI_emp_045</t>
   </si>
   <si>
-    <t>修改用户姓名、职位、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "王伟", "job": 2, "entrydate": "2024-09-18" }</t>
+    <t>修改用户姓名、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "赵云", "job":"班主任", "dept_id":"通讯部" }</t>
   </si>
   <si>
     <t>UI_emp_046</t>
   </si>
   <si>
-    <t>修改用户姓名、职位、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "赵云", "job":"班主任", "dept_id":"通讯部" }</t>
+    <t>修改用户姓名、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "张三", "entrydate": "2024-09-18", "dept_id":"人事部"}</t>
   </si>
   <si>
     <t>UI_emp_047</t>
   </si>
   <si>
-    <t>修改用户姓名、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "张三", "entrydate": "2024-09-18", "dept_id":"人事部"}</t>
+    <t>修改性别、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"男", "job": 4, "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>UI_emp_048</t>
   </si>
   <si>
-    <t>修改性别、职位、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"男", "job": 4, "entrydate": "2024-09-18" }</t>
+    <t>修改性别、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"女", "job":"学工主管", "dept_id":"研发部" }</t>
   </si>
   <si>
     <t>UI_emp_049</t>
   </si>
   <si>
-    <t>修改性别、职位、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"女", "job":"学工主管", "dept_id":"研发部" }</t>
+    <t>修改性别、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"男", "entrydate": "2024-09-18", "dept_id":"开发部" }</t>
   </si>
   <si>
     <t>UI_emp_050</t>
   </si>
   <si>
-    <t>修改性别、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"男", "entrydate": "2024-09-18", "dept_id":"开发部" }</t>
+    <t>修改职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "job":"咨询师", "entrydate": "2024-09-18", "dept_id":"教研部" }</t>
   </si>
   <si>
     <t>UI_emp_051</t>
   </si>
   <si>
-    <t>修改职位、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "job":"咨询师", "entrydate": "2024-09-18", "dept_id":"教研部" }</t>
+    <t>修改用户姓名、性别、职位、入职日期，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "郑一", "gender":"男", "job":"班主任", "entrydate": "2024-09-18" }</t>
   </si>
   <si>
     <t>UI_emp_052</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、职位、入职日期，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "郑一", "gender":"男", "job":"班主任", "entrydate": "2024-09-18" }</t>
+    <t>修改用户姓名、性别、职位、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "孙二", "gender":"女", "job":"咨询师", "dept_id":"开发部" }</t>
   </si>
   <si>
     <t>UI_emp_053</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、职位、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "孙二", "gender":"女", "job":"咨询师", "dept_id":"开发部" }</t>
+    <t>修改用户姓名、性别、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "李三", "gender":"男", "入职日期": "2024-09-18", "dept_id":"咨询部" }</t>
   </si>
   <si>
     <t>UI_emp_054</t>
   </si>
   <si>
-    <t>修改用户姓名、性别、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "李三", "gender":"男", "入职日期": "2024-09-18", "dept_id":"咨询部" }</t>
+    <t>修改用户姓名、职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "name": "周四", "job": 4, "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
   </si>
   <si>
     <t>UI_emp_055</t>
   </si>
   <si>
-    <t>修改用户姓名、职位、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "name": "周四", "job": 4, "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
+    <t>修改性别、职位、入职日期、归属部门，修改成功</t>
+  </si>
+  <si>
+    <t>{  "gender":"女", "job":"学工主管", "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
   </si>
   <si>
     <t>UI_emp_056</t>
-  </si>
-  <si>
-    <t>修改性别、职位、入职日期、归属部门，修改成功</t>
-  </si>
-  <si>
-    <t>{  "gender":"女", "job":"学工主管", "entrydate": "2024-09-18", "dept_id":"人事部" }</t>
-  </si>
-  <si>
-    <t>UI_emp_057</t>
   </si>
   <si>
     <t>用户姓名为空字符串，其余信息合法，修改失败</t>
@@ -3093,7 +3072,7 @@
 3.保存失败，提示“用户姓名是必填项”</t>
   </si>
   <si>
-    <t>UI_emp_058</t>
+    <t>UI_emp_057</t>
   </si>
   <si>
     <t>用户姓名的长度为1，其余信息合法，修改失败</t>
@@ -3114,13 +3093,13 @@
 3.保存失败，提示“用户姓名长度必须在2到10个字符之间”</t>
   </si>
   <si>
+    <t>UI_emp_058</t>
+  </si>
+  <si>
+    <t>用户姓名的长度为11，其余信息合法，修改失败</t>
+  </si>
+  <si>
     <t>UI_emp_059</t>
-  </si>
-  <si>
-    <t>用户姓名的长度为11，其余信息合法，修改失败</t>
-  </si>
-  <si>
-    <t>UI_emp_060</t>
   </si>
   <si>
     <t>用户姓名含非法字符，其余信息合法，修改失败</t>
@@ -3141,7 +3120,7 @@
 3.保存失败，提示“用户姓名只能包含汉字”</t>
   </si>
   <si>
-    <t>UI_emp_061</t>
+    <t>UI_emp_060</t>
   </si>
   <si>
     <t>性别为空值，其余信息合法，修改失败</t>
@@ -3162,7 +3141,7 @@
 3.保存失败，提示“性别是必填项”</t>
   </si>
   <si>
-    <t>UI_emp_062</t>
+    <t>UI_emp_061</t>
   </si>
   <si>
     <t>删除指定员工，删除成功</t>
@@ -3175,7 +3154,7 @@
 2.点击【确定】按钮</t>
   </si>
   <si>
-    <t>UI_emp_063</t>
+    <t>UI_emp_062</t>
   </si>
   <si>
     <t>删除指定员工，取消删除</t>
@@ -5082,12 +5061,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57:F133"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -5896,15 +5875,15 @@
       </c>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="55.2" spans="1:8">
+    <row r="34" ht="124.2" spans="1:8">
       <c r="A34" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>122</v>
+      <c r="C34" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>38</v>
@@ -5916,20 +5895,18 @@
         <v>228</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" ht="124.2" spans="1:8">
+    <row r="35" ht="138" spans="1:8">
       <c r="A35" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="12" t="s">
         <v>38</v>
       </c>
@@ -5942,11 +5919,13 @@
       <c r="G35" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="36" ht="138" spans="1:8">
       <c r="A36" s="17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>222</v>
@@ -5956,17 +5935,15 @@
         <v>38</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" ht="138" spans="1:8">
       <c r="A37" s="17" t="s">
@@ -6010,9 +5987,11 @@
       <c r="G38" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" ht="138" spans="1:8">
+      <c r="H38" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" ht="124.2" spans="1:8">
       <c r="A39" s="17" t="s">
         <v>242</v>
       </c>
@@ -6032,11 +6011,9 @@
       <c r="G39" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" ht="124.2" spans="1:8">
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="138" spans="1:8">
       <c r="A40" s="17" t="s">
         <v>245</v>
       </c>
@@ -6056,7 +6033,9 @@
       <c r="G40" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="41" ht="138" spans="1:8">
       <c r="A41" s="17" t="s">
@@ -6078,9 +6057,7 @@
       <c r="G41" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" ht="138" spans="1:8">
       <c r="A42" s="17" t="s">
@@ -6102,7 +6079,9 @@
       <c r="G42" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="43" ht="138" spans="1:8">
       <c r="A43" s="17" t="s">
@@ -6125,7 +6104,7 @@
         <v>185</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" ht="138" spans="1:8">
@@ -6148,9 +6127,7 @@
       <c r="G44" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" ht="138" spans="1:8">
       <c r="A45" s="17" t="s">
@@ -6166,13 +6143,15 @@
       <c r="E45" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="11" t="s">
         <v>262</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="46" ht="138" spans="1:8">
       <c r="A46" s="17" t="s">
@@ -6194,9 +6173,7 @@
       <c r="G46" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" ht="138" spans="1:8">
       <c r="A47" s="17" t="s">
@@ -6218,7 +6195,9 @@
       <c r="G47" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="48" ht="138" spans="1:8">
       <c r="A48" s="17" t="s">
@@ -6241,7 +6220,7 @@
         <v>185</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" ht="138" spans="1:8">
@@ -6264,9 +6243,7 @@
       <c r="G49" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H49" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" ht="138" spans="1:8">
       <c r="A50" s="17" t="s">
@@ -6286,7 +6263,7 @@
         <v>277</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H50" s="13"/>
     </row>
@@ -6308,9 +6285,11 @@
         <v>280</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="H51" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="52" ht="138" spans="1:8">
       <c r="A52" s="17" t="s">
@@ -6332,9 +6311,7 @@
       <c r="G52" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" ht="138" spans="1:8">
       <c r="A53" s="17" t="s">
@@ -6354,7 +6331,7 @@
         <v>286</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="H53" s="13"/>
     </row>
@@ -6376,62 +6353,64 @@
         <v>289</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" ht="138" spans="1:8">
+    <row r="55" ht="110.4" spans="1:8">
       <c r="A55" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="C55" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" ht="110.4" spans="1:8">
+      <c r="F55" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="41.4" spans="1:8">
       <c r="A56" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="B56" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="19" t="s">
+      <c r="B56" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F56" s="21" t="s">
+      <c r="F56" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="H56" s="17"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>122</v>
@@ -6451,11 +6430,11 @@
       <c r="H57" s="22"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>122</v>
@@ -6475,11 +6454,11 @@
       <c r="H58" s="22"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>122</v>
@@ -6499,11 +6478,11 @@
       <c r="H59" s="22"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>122</v>
@@ -6523,11 +6502,11 @@
       <c r="H60" s="22"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>122</v>
@@ -6547,11 +6526,11 @@
       <c r="H61" s="22"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="17" t="s">
         <v>312</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>122</v>
@@ -6562,7 +6541,7 @@
       <c r="E62" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="11" t="s">
         <v>314</v>
       </c>
       <c r="G62" s="15" t="s">
@@ -6571,11 +6550,11 @@
       <c r="H62" s="22"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>122</v>
@@ -6595,11 +6574,11 @@
       <c r="H63" s="22"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>122</v>
@@ -6619,11 +6598,11 @@
       <c r="H64" s="22"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>122</v>
@@ -6643,11 +6622,11 @@
       <c r="H65" s="22"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="17" t="s">
         <v>324</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C66" s="22" t="s">
         <v>122</v>
@@ -6667,11 +6646,11 @@
       <c r="H66" s="22"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>122</v>
@@ -6691,11 +6670,11 @@
       <c r="H67" s="22"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>122</v>
@@ -6715,11 +6694,11 @@
       <c r="H68" s="22"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C69" s="22" t="s">
         <v>122</v>
@@ -6739,11 +6718,11 @@
       <c r="H69" s="22"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="17" t="s">
         <v>336</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>122</v>
@@ -6763,11 +6742,11 @@
       <c r="H70" s="22"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="17" t="s">
         <v>339</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C71" s="22" t="s">
         <v>122</v>
@@ -6787,11 +6766,11 @@
       <c r="H71" s="22"/>
     </row>
     <row r="72" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>122</v>
@@ -6811,11 +6790,11 @@
       <c r="H72" s="22"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C73" s="22" t="s">
         <v>122</v>
@@ -6835,11 +6814,11 @@
       <c r="H73" s="22"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="17" t="s">
         <v>348</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C74" s="22" t="s">
         <v>122</v>
@@ -6859,11 +6838,11 @@
       <c r="H74" s="22"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="17" t="s">
         <v>351</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>122</v>
@@ -6883,11 +6862,11 @@
       <c r="H75" s="22"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="17" t="s">
         <v>354</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C76" s="22" t="s">
         <v>122</v>
@@ -6907,11 +6886,11 @@
       <c r="H76" s="22"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="17" t="s">
         <v>357</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C77" s="22" t="s">
         <v>122</v>
@@ -6931,11 +6910,11 @@
       <c r="H77" s="22"/>
     </row>
     <row r="78" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="17" t="s">
         <v>360</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>122</v>
@@ -6955,11 +6934,11 @@
       <c r="H78" s="22"/>
     </row>
     <row r="79" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C79" s="22" t="s">
         <v>122</v>
@@ -6979,11 +6958,11 @@
       <c r="H79" s="22"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="17" t="s">
         <v>366</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C80" s="22" t="s">
         <v>122</v>
@@ -7003,11 +6982,11 @@
       <c r="H80" s="22"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="17" t="s">
         <v>369</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>122</v>
@@ -7027,11 +7006,11 @@
       <c r="H81" s="22"/>
     </row>
     <row r="82" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="17" t="s">
         <v>372</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C82" s="22" t="s">
         <v>122</v>
@@ -7039,7 +7018,7 @@
       <c r="D82" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="14" t="s">
         <v>373</v>
       </c>
       <c r="F82" s="11" t="s">
@@ -7051,11 +7030,11 @@
       <c r="H82" s="22"/>
     </row>
     <row r="83" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="17" t="s">
         <v>375</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C83" s="22" t="s">
         <v>122</v>
@@ -7075,11 +7054,11 @@
       <c r="H83" s="22"/>
     </row>
     <row r="84" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="17" t="s">
         <v>378</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C84" s="22" t="s">
         <v>122</v>
@@ -7099,11 +7078,11 @@
       <c r="H84" s="22"/>
     </row>
     <row r="85" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="17" t="s">
         <v>381</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C85" s="22" t="s">
         <v>122</v>
@@ -7123,11 +7102,11 @@
       <c r="H85" s="22"/>
     </row>
     <row r="86" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="17" t="s">
         <v>384</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C86" s="22" t="s">
         <v>122</v>
@@ -7147,11 +7126,11 @@
       <c r="H86" s="22"/>
     </row>
     <row r="87" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="17" t="s">
         <v>387</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C87" s="22" t="s">
         <v>122</v>
@@ -7171,11 +7150,11 @@
       <c r="H87" s="22"/>
     </row>
     <row r="88" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="17" t="s">
         <v>390</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>122</v>
@@ -7195,11 +7174,11 @@
       <c r="H88" s="22"/>
     </row>
     <row r="89" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C89" s="22" t="s">
         <v>122</v>
@@ -7219,11 +7198,11 @@
       <c r="H89" s="22"/>
     </row>
     <row r="90" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="17" t="s">
         <v>396</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>122</v>
@@ -7243,11 +7222,11 @@
       <c r="H90" s="22"/>
     </row>
     <row r="91" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="17" t="s">
         <v>399</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C91" s="22" t="s">
         <v>122</v>
@@ -7267,11 +7246,11 @@
       <c r="H91" s="22"/>
     </row>
     <row r="92" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="17" t="s">
         <v>402</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>122</v>
@@ -7291,11 +7270,11 @@
       <c r="H92" s="22"/>
     </row>
     <row r="93" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="17" t="s">
         <v>405</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>122</v>
@@ -7315,11 +7294,11 @@
       <c r="H93" s="22"/>
     </row>
     <row r="94" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="17" t="s">
         <v>408</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>122</v>
@@ -7339,11 +7318,11 @@
       <c r="H94" s="22"/>
     </row>
     <row r="95" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="17" t="s">
         <v>411</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>122</v>
@@ -7363,11 +7342,11 @@
       <c r="H95" s="22"/>
     </row>
     <row r="96" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>122</v>
@@ -7387,11 +7366,11 @@
       <c r="H96" s="22"/>
     </row>
     <row r="97" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="17" t="s">
         <v>417</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C97" s="22" t="s">
         <v>122</v>
@@ -7411,11 +7390,11 @@
       <c r="H97" s="22"/>
     </row>
     <row r="98" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="17" t="s">
         <v>420</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>122</v>
@@ -7435,11 +7414,11 @@
       <c r="H98" s="22"/>
     </row>
     <row r="99" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="17" t="s">
         <v>423</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C99" s="22" t="s">
         <v>122</v>
@@ -7459,11 +7438,11 @@
       <c r="H99" s="22"/>
     </row>
     <row r="100" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="17" t="s">
         <v>426</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>122</v>
@@ -7483,11 +7462,11 @@
       <c r="H100" s="22"/>
     </row>
     <row r="101" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="17" t="s">
         <v>429</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C101" s="22" t="s">
         <v>122</v>
@@ -7507,11 +7486,11 @@
       <c r="H101" s="22"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="17" t="s">
         <v>432</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>122</v>
@@ -7531,11 +7510,11 @@
       <c r="H102" s="22"/>
     </row>
     <row r="103" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="17" t="s">
         <v>435</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C103" s="22" t="s">
         <v>122</v>
@@ -7555,11 +7534,11 @@
       <c r="H103" s="22"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="17" t="s">
         <v>438</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C104" s="22" t="s">
         <v>122</v>
@@ -7579,11 +7558,11 @@
       <c r="H104" s="22"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="17" t="s">
         <v>441</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C105" s="22" t="s">
         <v>122</v>
@@ -7603,11 +7582,11 @@
       <c r="H105" s="22"/>
     </row>
     <row r="106" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="17" t="s">
         <v>444</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C106" s="22" t="s">
         <v>122</v>
@@ -7627,11 +7606,11 @@
       <c r="H106" s="22"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="17" t="s">
         <v>447</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C107" s="22" t="s">
         <v>122</v>
@@ -7651,11 +7630,11 @@
       <c r="H107" s="22"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="17" t="s">
         <v>450</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C108" s="22" t="s">
         <v>122</v>
@@ -7675,11 +7654,11 @@
       <c r="H108" s="22"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="17" t="s">
         <v>453</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>122</v>
@@ -7699,11 +7678,11 @@
       <c r="H109" s="22"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="17" t="s">
         <v>456</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C110" s="22" t="s">
         <v>122</v>
@@ -7723,11 +7702,11 @@
       <c r="H110" s="22"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="17" t="s">
         <v>459</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>122</v>
@@ -7746,36 +7725,36 @@
       </c>
       <c r="H111" s="22"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="41.4" spans="1:8">
-      <c r="A112" s="22" t="s">
+    <row r="112" ht="124.2" spans="1:8">
+      <c r="A112" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="B112" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="9" t="s">
+      <c r="B112" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E112" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="F112" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="G112" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="H112" s="22"/>
-    </row>
-    <row r="113" ht="124.2" spans="1:8">
-      <c r="A113" s="22" t="s">
+      <c r="G112" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="13"/>
+    </row>
+    <row r="113" ht="138" spans="1:8">
+      <c r="A113" s="17" t="s">
         <v>465</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>72</v>
@@ -7795,11 +7774,11 @@
       <c r="H113" s="13"/>
     </row>
     <row r="114" ht="138" spans="1:8">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="17" t="s">
         <v>468</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>72</v>
@@ -7818,12 +7797,12 @@
       </c>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" ht="138" spans="1:8">
-      <c r="A115" s="22" t="s">
+    <row r="115" ht="124.2" spans="1:8">
+      <c r="A115" s="17" t="s">
         <v>471</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>72</v>
@@ -7842,12 +7821,12 @@
       </c>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" ht="124.2" spans="1:8">
-      <c r="A116" s="22" t="s">
+    <row r="116" ht="138" spans="1:8">
+      <c r="A116" s="17" t="s">
         <v>474</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>72</v>
@@ -7867,11 +7846,11 @@
       <c r="H116" s="13"/>
     </row>
     <row r="117" ht="138" spans="1:8">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="17" t="s">
         <v>477</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>72</v>
@@ -7891,11 +7870,11 @@
       <c r="H117" s="13"/>
     </row>
     <row r="118" ht="138" spans="1:8">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="17" t="s">
         <v>480</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>72</v>
@@ -7915,11 +7894,11 @@
       <c r="H118" s="13"/>
     </row>
     <row r="119" ht="138" spans="1:8">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="17" t="s">
         <v>483</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>72</v>
@@ -7938,12 +7917,12 @@
       </c>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" ht="138" spans="1:8">
-      <c r="A120" s="22" t="s">
+    <row r="120" ht="124.2" spans="1:8">
+      <c r="A120" s="17" t="s">
         <v>486</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C120" s="13" t="s">
         <v>72</v>
@@ -7962,12 +7941,12 @@
       </c>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" ht="124.2" spans="1:8">
-      <c r="A121" s="22" t="s">
+    <row r="121" ht="138" spans="1:8">
+      <c r="A121" s="17" t="s">
         <v>489</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C121" s="13" t="s">
         <v>72</v>
@@ -7987,11 +7966,11 @@
       <c r="H121" s="13"/>
     </row>
     <row r="122" ht="138" spans="1:8">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="17" t="s">
         <v>492</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>72</v>
@@ -8011,11 +7990,11 @@
       <c r="H122" s="13"/>
     </row>
     <row r="123" ht="138" spans="1:8">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="17" t="s">
         <v>495</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C123" s="13" t="s">
         <v>72</v>
@@ -8034,12 +8013,12 @@
       </c>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" ht="138" spans="1:8">
-      <c r="A124" s="22" t="s">
+    <row r="124" ht="124.2" spans="1:8">
+      <c r="A124" s="17" t="s">
         <v>498</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C124" s="13" t="s">
         <v>72</v>
@@ -8058,12 +8037,12 @@
       </c>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" ht="124.2" spans="1:8">
-      <c r="A125" s="22" t="s">
+    <row r="125" ht="138" spans="1:8">
+      <c r="A125" s="17" t="s">
         <v>501</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C125" s="13" t="s">
         <v>72</v>
@@ -8083,11 +8062,11 @@
       <c r="H125" s="13"/>
     </row>
     <row r="126" ht="138" spans="1:8">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="17" t="s">
         <v>504</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C126" s="13" t="s">
         <v>72</v>
@@ -8107,11 +8086,11 @@
       <c r="H126" s="13"/>
     </row>
     <row r="127" ht="138" spans="1:8">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="17" t="s">
         <v>507</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>72</v>
@@ -8131,11 +8110,11 @@
       <c r="H127" s="13"/>
     </row>
     <row r="128" ht="138" spans="1:8">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="17" t="s">
         <v>510</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>72</v>
@@ -8155,11 +8134,11 @@
       <c r="H128" s="13"/>
     </row>
     <row r="129" ht="138" spans="1:8">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="17" t="s">
         <v>513</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C129" s="13" t="s">
         <v>72</v>
@@ -8179,11 +8158,11 @@
       <c r="H129" s="13"/>
     </row>
     <row r="130" ht="138" spans="1:8">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="17" t="s">
         <v>516</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>72</v>
@@ -8203,11 +8182,11 @@
       <c r="H130" s="13"/>
     </row>
     <row r="131" ht="138" spans="1:8">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="17" t="s">
         <v>519</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>72</v>
@@ -8227,11 +8206,11 @@
       <c r="H131" s="13"/>
     </row>
     <row r="132" ht="138" spans="1:8">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="17" t="s">
         <v>522</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>72</v>
@@ -8250,63 +8229,63 @@
       </c>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" ht="138" spans="1:8">
-      <c r="A133" s="22" t="s">
+    <row r="133" ht="41.4" spans="1:8">
+      <c r="A133" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="14" t="s">
+      <c r="B133" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="F133" s="14" t="s">
+      <c r="C133" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="G133" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="H133" s="13"/>
+      <c r="F133" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" ht="41.4" spans="1:8">
       <c r="A134" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="B134" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134" s="17" t="s">
+      <c r="B134" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="G134" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H134" s="17"/>
+      <c r="G134" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H134" s="13"/>
     </row>
     <row r="135" ht="41.4" spans="1:8">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="17" t="s">
         <v>532</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>38</v>
@@ -8323,11 +8302,11 @@
       <c r="H135" s="13"/>
     </row>
     <row r="136" ht="41.4" spans="1:8">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="17" t="s">
         <v>535</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C136" s="13" t="s">
         <v>14</v>
@@ -8347,14 +8326,14 @@
       <c r="H136" s="13"/>
     </row>
     <row r="137" ht="41.4" spans="1:8">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="17" t="s">
         <v>538</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>38</v>
@@ -8370,60 +8349,60 @@
       </c>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" ht="41.4" spans="1:8">
-      <c r="A138" s="22" t="s">
+    <row r="138" ht="69" spans="1:8">
+      <c r="A138" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="B138" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C138" s="13" t="s">
+      <c r="B138" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="19" t="s">
+        <v>543</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="G138" s="19" t="s">
+        <v>545</v>
+      </c>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" ht="41.4" spans="1:8">
+      <c r="A139" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="C139" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="14" t="s">
+      <c r="D139" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="H139" s="13"/>
+    </row>
+    <row r="140" ht="41.4" spans="1:8">
+      <c r="A140" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B140" s="13" t="s">
         <v>542</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="H138" s="13"/>
-    </row>
-    <row r="139" ht="69" spans="1:8">
-      <c r="A139" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="F139" s="19" t="s">
-        <v>547</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>548</v>
-      </c>
-      <c r="H139" s="17"/>
-    </row>
-    <row r="140" ht="41.4" spans="1:8">
-      <c r="A140" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>545</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>72</v>
@@ -8432,22 +8411,22 @@
         <v>38</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H140" s="13"/>
     </row>
     <row r="141" ht="41.4" spans="1:8">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="17" t="s">
         <v>553</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>72</v>
@@ -8462,16 +8441,16 @@
         <v>555</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H141" s="13"/>
     </row>
     <row r="142" ht="41.4" spans="1:8">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="17" t="s">
         <v>556</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>72</v>
@@ -8486,33 +8465,9 @@
         <v>558</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H142" s="13"/>
-    </row>
-    <row r="143" ht="41.4" spans="1:8">
-      <c r="A143" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D143" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="F143" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="H143" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8557,18 +8512,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:8">
       <c r="A2" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
@@ -8578,21 +8533,21 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
@@ -8602,21 +8557,21 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" ht="41.4" spans="1:8">
       <c r="A4" s="12" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
@@ -8626,21 +8581,21 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -8650,21 +8605,21 @@
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" ht="41.4" spans="1:8">
       <c r="A6" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -8674,62 +8629,62 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" ht="69" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -8769,24 +8724,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>67</v>
@@ -8795,24 +8750,24 @@
         <v>122</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:8">
       <c r="A3" s="12" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>67</v>
@@ -8821,24 +8776,24 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="H3" s="11" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" ht="55.2" spans="1:8">
       <c r="A4" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>67</v>
@@ -8847,24 +8802,24 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="H4" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" ht="55.2" spans="1:8">
       <c r="A5" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>67</v>
@@ -8873,24 +8828,24 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>606</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>594</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" ht="55.2" spans="1:8">
       <c r="A6" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>67</v>
@@ -8899,22 +8854,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" ht="41.4" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>67</v>
@@ -8923,24 +8878,24 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>611</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="8" ht="69" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>83</v>
@@ -8949,24 +8904,24 @@
         <v>122</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="9" ht="41.4" spans="1:8">
       <c r="A9" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>83</v>
@@ -8975,24 +8930,24 @@
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>621</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="10" ht="69" spans="1:8">
       <c r="A10" s="12" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>83</v>
@@ -9001,24 +8956,24 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" ht="69" spans="1:8">
       <c r="A11" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>83</v>
@@ -9027,24 +8982,24 @@
         <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" ht="41.4" spans="1:8">
       <c r="A12" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>83</v>
@@ -9053,24 +9008,24 @@
         <v>122</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>632</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>633</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="13" ht="41.4" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>101</v>
@@ -9079,24 +9034,24 @@
         <v>122</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" ht="41.4" spans="1:8">
       <c r="A14" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>101</v>
@@ -9105,19 +9060,19 @@
         <v>122</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -9129,10 +9084,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -9157,1657 +9112,1631 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" ht="41.4" spans="1:8">
       <c r="A2" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>647</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="41.4" spans="1:8">
       <c r="A3" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="41.4" spans="1:8">
       <c r="A4" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="41.4" spans="1:8">
       <c r="A5" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>659</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="41.4" spans="1:8">
       <c r="A6" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="41.4" spans="1:8">
       <c r="A7" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>648</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="41.4" spans="1:8">
       <c r="A8" s="9" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>649</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" ht="27.6" spans="1:8">
       <c r="A9" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>122</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A13" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="27.6" spans="1:8">
       <c r="A14" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" ht="151.8" spans="1:8">
       <c r="A15" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="F15" s="8" t="s">
+    </row>
+    <row r="16" ht="179.4" spans="1:8">
+      <c r="A16" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="B16" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="F16" s="14" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="16" ht="41.4" spans="1:8">
-      <c r="A16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="F16" s="11" t="s">
+    </row>
+    <row r="17" ht="207" spans="1:8">
+      <c r="A17" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" ht="179.4" spans="1:8">
-      <c r="A17" s="9" t="s">
-        <v>696</v>
-      </c>
       <c r="B17" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>697</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="18" ht="207" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="19" ht="207" spans="1:8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" ht="179.4" spans="1:8">
       <c r="A19" s="9" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>702</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="20" ht="179.4" spans="1:8">
+    <row r="20" ht="193.2" spans="1:8">
       <c r="A20" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="F20" s="14" t="s">
+    </row>
+    <row r="21" ht="179.4" spans="1:8">
+      <c r="A21" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="21" ht="193.2" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>710</v>
-      </c>
       <c r="B21" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="F21" s="14" t="s">
+    </row>
+    <row r="22" ht="193.2" spans="1:8">
+      <c r="A22" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" ht="179.4" spans="1:8">
-      <c r="A22" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="B22" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>715</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="23" ht="193.2" spans="1:8">
       <c r="A23" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="24" ht="193.2" spans="1:8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="24" ht="179.4" spans="1:8">
       <c r="A24" s="9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="F24" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>720</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="25" ht="179.4" spans="1:8">
       <c r="A25" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="F25" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" ht="110.4" spans="1:8">
+      <c r="A26" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H25" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="26" ht="179.4" spans="1:8">
-      <c r="A26" s="9" t="s">
+      <c r="C26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="27" ht="110.4" spans="1:8">
-      <c r="A27" s="7" t="s">
+    <row r="27" ht="41.4" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>736</v>
+      <c r="G27" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="28" ht="41.4" spans="1:8">
       <c r="A28" s="9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="29" ht="41.4" spans="1:8">
       <c r="A29" s="9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="30" ht="41.4" spans="1:8">
       <c r="A30" s="9" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" ht="41.4" spans="1:8">
       <c r="A31" s="9" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" ht="41.4" spans="1:8">
       <c r="A32" s="9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>748</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" ht="41.4" spans="1:8">
       <c r="A33" s="9" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="34" ht="41.4" spans="1:8">
       <c r="A34" s="9" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" ht="41.4" spans="1:8">
       <c r="A35" s="9" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" ht="41.4" spans="1:8">
       <c r="A36" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" ht="41.4" spans="1:8">
       <c r="A37" s="9" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="38" ht="41.4" spans="1:8">
       <c r="A38" s="9" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" ht="41.4" spans="1:8">
       <c r="A39" s="9" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" ht="41.4" spans="1:8">
       <c r="A40" s="9" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" ht="41.4" spans="1:8">
       <c r="A41" s="9" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" ht="41.4" spans="1:8">
       <c r="A42" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="43" ht="55.2" spans="1:8">
+      <c r="A43" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="B43" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="43" ht="41.4" spans="1:8">
-      <c r="A43" s="9" t="s">
+      <c r="G43" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="44" ht="41.4" spans="1:8">
+      <c r="A44" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="B44" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="44" ht="55.2" spans="1:8">
-      <c r="A44" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>787</v>
-      </c>
       <c r="G44" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" ht="41.4" spans="1:8">
       <c r="A45" s="9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" ht="41.4" spans="1:8">
       <c r="A46" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="47" ht="55.2" spans="1:8">
+      <c r="A47" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E46" s="14" t="s">
+      <c r="B47" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="47" ht="41.4" spans="1:8">
-      <c r="A47" s="9" t="s">
+      <c r="G47" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="48" ht="41.4" spans="1:8">
+      <c r="A48" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="B48" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="48" ht="55.2" spans="1:8">
-      <c r="A48" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>799</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" ht="41.4" spans="1:8">
       <c r="A49" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="50" ht="55.2" spans="1:8">
+      <c r="A50" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E49" s="14" t="s">
+      <c r="B50" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="50" ht="41.4" spans="1:8">
-      <c r="A50" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>805</v>
-      </c>
       <c r="G50" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" ht="55.2" spans="1:8">
       <c r="A51" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="52" ht="55.2" spans="1:8">
       <c r="A52" s="9" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="53" ht="55.2" spans="1:8">
       <c r="A53" s="9" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" ht="55.2" spans="1:8">
       <c r="A54" s="9" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" ht="55.2" spans="1:8">
       <c r="A55" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="56" ht="69" spans="1:8">
+      <c r="A56" s="9" t="s">
         <v>818</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="B56" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="56" ht="55.2" spans="1:8">
-      <c r="A56" s="9" t="s">
+      <c r="G56" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="57" ht="193.2" spans="1:8">
+      <c r="A57" s="9" t="s">
         <v>821</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E56" s="14" t="s">
+      <c r="B57" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F57" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="57" ht="69" spans="1:8">
-      <c r="A57" s="9" t="s">
+      <c r="G57" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H57" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E57" s="14" t="s">
+    </row>
+    <row r="58" ht="207" spans="1:8">
+      <c r="A58" s="9" t="s">
         <v>825</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="58" ht="193.2" spans="1:8">
-      <c r="A58" s="9" t="s">
-        <v>827</v>
-      </c>
       <c r="B58" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E58" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>829</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="59" ht="207" spans="1:8">
       <c r="A59" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="60" ht="207" spans="1:8">
       <c r="A60" s="9" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>833</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="61" ht="207" spans="1:8">
+    <row r="61" ht="193.2" spans="1:8">
       <c r="A61" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E61" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="H61" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="F61" s="14" t="s">
+    </row>
+    <row r="62" ht="41.4" spans="1:8">
+      <c r="A62" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="B62" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="62" ht="193.2" spans="1:8">
-      <c r="A62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E62" s="14" t="s">
+      <c r="G62" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="H62" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="63" ht="41.4" spans="1:8">
+      <c r="A63" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="H62" s="11" t="s">
+      <c r="B63" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="63" ht="41.4" spans="1:8">
-      <c r="A63" s="7" t="s">
+      <c r="F63" s="10" t="s">
         <v>845</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="G63" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="64" ht="41.4" spans="1:8">
-      <c r="A64" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>595</v>
+      <c r="H63" s="10" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
